--- a/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
+++ b/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Documents\GitHub\Scripts\SecondKeyboard\ArduinoPS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0810923F-9507-4AD0-BDDB-DF05AD701DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63CF51F-B669-4364-A49E-6BC56F3E615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47235" yWindow="13245" windowWidth="15420" windowHeight="6450" activeTab="3" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
+    <workbookView xWindow="11685" yWindow="5085" windowWidth="43200" windowHeight="23535" activeTab="2" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="374">
   <si>
     <t>&lt;value</t>
   </si>
@@ -1438,6 +1438,24 @@
   </si>
   <si>
     <t>Second key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d == 353 or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d == </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> or </t>
+  </si>
+  <si>
+    <t>Self.Height</t>
+  </si>
+  <si>
+    <t>JHGHJNMMMMMMMBBBBBBhhhhhhh</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -4579,7 +4597,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" ref="W40:W101" ca="1" si="78">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>5c919828-16e0-5516-a57b-e7e6e0b398f9</v>
+        <v>575da498-25dc-7b37-8930-9c47bf009cf8</v>
       </c>
       <c r="AE40" t="s">
         <v>54</v>
@@ -4654,7 +4672,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4c68b1b3-767e-1de9-92f0-680f7efa7afd</v>
+        <v>712263f3-308b-782d-1232-dbbf65420a40</v>
       </c>
       <c r="AE41" t="s">
         <v>55</v>
@@ -4729,7 +4747,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e393272e-7676-9e5b-2781-9ded362d88cd</v>
+        <v>2fee0e87-9351-085f-0fd3-b109b45b155c</v>
       </c>
       <c r="AE42" t="s">
         <v>56</v>
@@ -4804,7 +4822,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0b331bde-9c17-9bae-29aa-98fc36e28470</v>
+        <v>b46ccbb6-749b-781d-85a4-e5f35fd81c70</v>
       </c>
       <c r="AE43" t="s">
         <v>57</v>
@@ -4879,7 +4897,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>94f2e1c5-1d48-8bee-86a8-bb28b1cf1b7a</v>
+        <v>e04463c3-75c6-6158-30d9-4f58356a6d84</v>
       </c>
       <c r="AE44" t="s">
         <v>58</v>
@@ -4954,7 +4972,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ef5053d4-056a-2c89-a028-620475669bdf</v>
+        <v>64284a2a-616d-60c7-a150-afeccec874b0</v>
       </c>
       <c r="AE45" t="s">
         <v>59</v>
@@ -5029,7 +5047,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>28115011-2211-6a17-25c9-14c5bddf2d91</v>
+        <v>274c36b4-84d4-3b70-372e-8b6c5bcc3b30</v>
       </c>
       <c r="AE46" t="s">
         <v>60</v>
@@ -5104,7 +5122,7 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>46017189-3592-8ce7-34e6-901ef3673254</v>
+        <v>61e24b55-8651-6fac-9067-5f1f292c9ab5</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
@@ -5173,7 +5191,7 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9f07a84d-2322-9895-37a3-dd824b208a22</v>
+        <v>8ac8029b-3713-7abe-48a9-d3d20eab75d6</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5242,7 +5260,7 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4450848a-2654-14cb-8b50-a742be990825</v>
+        <v>94b3e25e-5dde-4574-12ba-4c742411866a</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5311,7 +5329,7 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ac0755b3-1226-06b2-4ae7-cbc8e2cd666f</v>
+        <v>34011eaa-8dbb-0cd6-90da-910ac31c0c52</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5380,7 +5398,7 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>441406f2-3acb-83c0-791e-37d7e4ec5a80</v>
+        <v>a564d3d7-49f1-92be-7efa-969954ea0bb6</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -5449,7 +5467,7 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7de5c9e1-96b6-2140-2904-943da8597c3d</v>
+        <v>bae04239-0925-6daf-66ec-c57fef7b19ce</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -5518,7 +5536,7 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>51497494-39d5-22ee-7541-4224368b2105</v>
+        <v>48ca1977-170e-678a-a777-5e15423f12e2</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -5587,7 +5605,7 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8965d559-05b4-54ed-581f-d6711d3824e9</v>
+        <v>1b7ffbb0-900e-4789-9bc5-1a43dfdf6d0c</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -5656,7 +5674,7 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a6ed4dea-6f66-a54d-64de-2570676f956a</v>
+        <v>12dc602d-5acd-10fe-34db-95f35bf59f3c</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5725,7 +5743,7 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f64416ff-1d25-740e-a3b9-29be6271a365</v>
+        <v>9e2e70d5-62a0-002f-6731-b877ad618d2a</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5794,7 +5812,7 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>74cc1984-0d6b-a563-7620-5083760e4bf9</v>
+        <v>73f67dd3-5545-32ac-008b-521c606ba646</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5863,7 +5881,7 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4344e283-139f-9a3b-240e-114923a71f78</v>
+        <v>0d40fc60-1bdf-99b3-4d12-07a1db3b1f4b</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5932,7 +5950,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>99544bf1-4dd1-4654-14fd-fa7d222e789d</v>
+        <v>db006917-2f49-6027-8f19-deb515cb079c</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -6001,7 +6019,7 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f609654d-4c7c-7b0b-61f9-a4a5f1c82707</v>
+        <v>f2e69a18-815c-60f8-34a7-155414a56cbc</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -6070,7 +6088,7 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>00e93a6d-2e87-810d-7c9a-252939948e28</v>
+        <v>fb7f1e16-5545-44ef-6c81-5e7f6ae433e8</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -6139,7 +6157,7 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>355f87f7-3237-a676-1aff-9ee48df129bd</v>
+        <v>36861fee-48eb-84d1-a435-413dbb483542</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -6208,7 +6226,7 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f400eea7-08f5-97c6-a719-a92452852a68</v>
+        <v>3ab86cb2-1e3b-296e-541b-d807ae0875f6</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -6277,7 +6295,7 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7485885c-9f21-a11c-0cc6-50e70a051a26</v>
+        <v>6df61a44-7fb6-24c8-7361-7182c9135000</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -6346,7 +6364,7 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7f450e56-2eeb-227a-4596-f2f7eaa02d00</v>
+        <v>a1719779-924c-2b68-31c1-4f76167581a8</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -6415,7 +6433,7 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>982d4dc9-65a8-57a3-96a0-ad6bda06a004</v>
+        <v>7aaf4cbf-2e25-62a7-0a59-8040922c1492</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -6484,7 +6502,7 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>980cb279-3cd0-98cf-7b28-615e5eb50979</v>
+        <v>b5a3dfef-0581-864e-5eaa-32b6e8e90134</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -6553,7 +6571,7 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6bc5ca56-1719-1c2e-6439-8ec3e8424016</v>
+        <v>213caaa4-7c5e-8c24-426a-2f0fa9a601bc</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -6622,7 +6640,7 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>58d2112b-4736-512d-165d-ba268092498e</v>
+        <v>4b0827f2-8400-8aa1-a132-3e4468893761</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -6691,7 +6709,7 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ded89fb9-3e05-3f62-2f2d-8538d2052a9e</v>
+        <v>e6e479e4-a027-64c1-5691-1cf3c9739e0e</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -6760,7 +6778,7 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>24c7f18c-14b2-6d7a-096d-b0b80a2f83f1</v>
+        <v>67575123-8f3d-8933-63ea-ffeaf88da1c1</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -6829,7 +6847,7 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3af51e07-2000-a0dc-1a4c-4b16466a521e</v>
+        <v>dd51eeae-4cd0-593f-3e8d-c416b62783e9</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -6898,7 +6916,7 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c6f2ce63-8559-a6a1-88f6-552cfa2460b7</v>
+        <v>377ece65-112e-2562-91fb-791147c62773</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -6967,7 +6985,7 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a08afdf2-7580-9f50-73b2-6afa4ff2939b</v>
+        <v>b4611aaa-27c2-0597-871d-6283ad151ea8</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -7036,7 +7054,7 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e7790130-529a-68c6-7912-bb9f765d44ad</v>
+        <v>70d9b03f-0c72-735a-a0c9-13212256a4b1</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -7105,7 +7123,7 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>931a371e-6921-11c9-15a6-2456f3015b15</v>
+        <v>d9be181b-650e-068c-1b03-9544bad02637</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -7174,7 +7192,7 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7e9ff53a-9dc9-712d-8f3b-174fc3ee27b8</v>
+        <v>a84d4b5d-3a01-3b0b-8048-c52b83ac9316</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -7243,7 +7261,7 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1ff74809-208e-4414-0167-51ba3475152e</v>
+        <v>0d3ef80e-61d4-3a91-5c1c-ccd2922f336b</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -7312,7 +7330,7 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5829df6c-33a9-0ec8-00c5-0d6811b44544</v>
+        <v>a78626f7-7960-6ef7-03cf-791e40a797ed</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -7381,7 +7399,7 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>21348812-2c1c-6edd-2604-9c71c1ea0e26</v>
+        <v>5e9a0c37-9d53-4500-16df-74c7336f7768</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -7450,7 +7468,7 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8c283648-2711-95df-1052-138b5025823e</v>
+        <v>80a8731e-3bf0-71e8-8a72-806696807ff5</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -7519,7 +7537,7 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3f2b06f2-2302-4bb2-0648-28991b838aa3</v>
+        <v>78a44a26-61ee-7125-71f7-1b19069f00b5</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -7588,7 +7606,7 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d6f6f56b-854a-2fab-2527-b33a5c5154c5</v>
+        <v>0fb68516-5b76-29aa-522f-5d6c8a361880</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -7657,7 +7675,7 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>dde5fb22-1a74-41da-647c-97f087087760</v>
+        <v>809ccad8-01dd-2ce1-a284-1fdb5aa57759</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -7726,7 +7744,7 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a73787ef-4b1a-31e3-111c-afab5a8b112a</v>
+        <v>8b82f971-18b5-8684-48fe-8f950519153b</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -7795,7 +7813,7 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>08425764-73d8-109d-5ff7-0d8f6e576405</v>
+        <v>7e2351db-583e-8a84-9287-b260309b8e79</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -7864,7 +7882,7 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8aa0cfa8-2676-8717-8ea1-67c3172f0e7b</v>
+        <v>9bae2bae-a4d6-7a97-22fb-5d4de32d7d27</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -7933,7 +7951,7 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>78403b4a-74b2-73f4-0bf5-fd7478484e1d</v>
+        <v>0e112044-2324-4a42-2c13-4ffeca001e97</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -8002,7 +8020,7 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3f497ca5-7a73-a111-5bd4-d015638362a3</v>
+        <v>6a1c8588-2e01-4d6e-538a-965115d43f45</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
@@ -8071,7 +8089,7 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2a07a156-6f38-75d4-99c6-88540dc016cf</v>
+        <v>b32f7b15-66ba-7e71-848c-c8acbdd61032</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -8140,7 +8158,7 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f94e2d03-81c8-8e75-23f8-99dff3a72480</v>
+        <v>f72ffe14-3797-71f4-54c5-558beafa8864</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
@@ -8209,7 +8227,7 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3513c0f4-4dc6-37b7-9462-8d95608660b4</v>
+        <v>4465ee9e-5adb-3a96-63bf-ff6034782da3</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -8278,7 +8296,7 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6c61b21e-4376-7dbd-6917-885e97e44b50</v>
+        <v>9e402084-9839-9e93-805c-151e8b52207a</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -8347,7 +8365,7 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1df8d5c7-297e-8646-96df-aa334e941184</v>
+        <v>e599287c-6372-6478-4c83-4273930358d8</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -8416,7 +8434,7 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>93705a8d-0182-35fa-08af-bdd1115d6539</v>
+        <v>6951004d-6788-14bf-3b26-485e0b6f08c7</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -8485,7 +8503,7 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>28817224-6120-342e-5571-086b94ff6766</v>
+        <v>788fbfe4-2255-2385-4567-5c819b7b218d</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -8554,7 +8572,7 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>cf79bf80-3fb1-17c4-74c0-99fed9792e77</v>
+        <v>a6332c22-9d60-5dc3-75db-43b6805b3d6d</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
@@ -8622,7 +8640,7 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>684360b3-41de-24bc-7325-562df0bd0166</v>
+        <v>85832faf-6958-01e3-6cbe-02f3240c7152</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -8690,7 +8708,7 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a294b9b1-8e69-19a6-7a79-d18114af916f</v>
+        <v>e9acbbad-0180-7b27-1824-390874d3023a</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
@@ -8758,7 +8776,7 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>33d36659-6d9d-a3fa-577a-234adec394b9</v>
+        <v>82528bc2-86c0-44ac-71a4-a096466c4882</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -8826,7 +8844,7 @@
       </c>
       <c r="W101" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>58451be4-4337-7be3-8489-7d4b0c4f0257</v>
+        <v>f5d3e7fa-9e16-68af-0fe9-91f100b85b13</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
@@ -16976,10 +16994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764DF5AC-D634-4334-9FC6-81E3E48ADA83}">
-  <dimension ref="A1:AF121"/>
+  <dimension ref="A1:AF230"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:C270"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN183" sqref="AN183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17069,7 +17087,7 @@
       </c>
       <c r="AE2" t="str">
         <f>_xlfn.CONCAT(AB:AB)</f>
-        <v xml:space="preserve">c == 353 || c == 354 || c == 355 || c == 356 || c == 357 || c == 358 || c == 359 || c == 360 || c == 361 || c == 362 || c == 363 || c == 364 || c == 64 || c == 49 || c == 50 || c == 51 || c == 52 || c == 53 || c == 54 || c == 55 || c == 56 || c == 57 || c == 48 || c == 60 || c == 95 || c == 81 || c == 87 || c == 69 || c == 82 || c == 84 || c == 89 || c == 85 || c == 73 || c == 79 || c == 80 || c == 65 || c == 83 || c == 68 || c == 70 || c == 71 || c == 72 || c == 74 || c == 75 || c == 76 || c == 90 || c == 88 || c == 67 || c == 86 || c == 66 || c == 78 || c == 77 || c == 93 || c == 94 || c == 92 || c == 91 || c == 58 || c == 59 || c == 61 || c == 62 || c == 283 || c == 285 || c == 4355 || c == 16646 || c == 8456 || c == 780 || c == 2314 || c == 287 || c == 1291 || c == 781 || c == 270 || c == 8457 || c == 16647 || c == 286 || c == 284 || c == 260 || c == 258 || c == 6 || c == 281 || c == 282 || c == 273 || c == 274 || c == 275 || c == 276 || c == 279 || c == 277 || c == 280 || c == 278 || c == 257 || c == 47 || c == 46 || c == 45 || c == 32 || c == 33 || c == 34 || c == 35 || c == 36 || c == 37 || c == 38 || c == 39 || c == 40 || c == 41 || c == 42 || c == 44 || c == 43 || </v>
+        <v>c == 353 || c == 354 || c == 355 || c == 356 || c == 357 || c == 358 || c == 359 || c == 360 || c == 361 || c == 362 || c == 363 || c == 364 || c == 64 || c == 49 || c == 50 || c == 51 || c == 52 || c == 53 || c == 54 || c == 55 || c == 56 || c == 57 || c == 48 || c == 60 || c == 95 || c == 81 || c == 87 || c == 69 || c == 82 || c == 84 || c == 89 || c == 85 || c == 73 || c == 79 || c == 80 || c == 65 || c == 83 || c == 68 || c == 70 || c == 71 || c == 72 || c == 74 || c == 75 || c == 76 || c == 90 || c == 88 || c == 67 || c == 86 || c == 66 || c == 78 || c == 77 || c == 93 || c == 94 || c == 92 || c == 91 || c == 58 || c == 59 || c == 61 || c == 62 || c == 283 || c == 285 || c == 4355 || c == 16646 || c == 8456 || c == 780 || c == 2314 || c == 287 || c == 1291 || c == 781 || c == 270 || c == 8457 || c == 16647 || c == 286 || c == 284 || c == 260 || c == 258 || c == 6 || c == 281 || c == 282 || c == 273 || c == 274 || c == 275 || c == 276 || c == 279 || c == 277 || c == 280 || c == 278 || c == 257 || c == 47 || c == 46 || c == 45 || c == 32 || c == 33 || c == 34 || c == 35 || c == 36 || c == 37 || c == 38 || c == 39 || c == 40 || c == 41 || c == 42 || c == 44 || c == 43 || B</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17109,7 +17127,7 @@
       </c>
       <c r="Q3" s="3" t="str">
         <f>_xlfn.CONCAT(N:N)</f>
-        <v xml:space="preserve">case 353:
+        <v>case 353:
 Keyboard.print("ino|");
 PrintNumpad(c);
 break;
@@ -17525,7 +17543,7 @@
 Keyboard.print("ino|");
 PrintNumpad(c);
 break;
-</v>
+3533543553563573583593603613623633646449505152535455565748609581876982848985737980658368707172747576908867866678779394929158596162283285435516646845678023142871291781270845716647286284260258628128227327427527627927728027825747464532333435363738394041424443</v>
       </c>
       <c r="X3" t="s">
         <v>351</v>
@@ -22790,20 +22808,1600 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="10"/>
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O123" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
+        <v>369</v>
+      </c>
+      <c r="N125">
+        <v>353</v>
+      </c>
+      <c r="O125" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q125" t="str">
+        <f>_xlfn.CONCAT(M125:O125)</f>
+        <v xml:space="preserve">d == 353 or </v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>369</v>
+      </c>
+      <c r="N126">
+        <v>354</v>
+      </c>
+      <c r="O126" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q126" t="str">
+        <f t="shared" ref="Q126:Q189" si="12">_xlfn.CONCAT(M126:O126)</f>
+        <v xml:space="preserve">d == 354 or </v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M127" t="s">
+        <v>369</v>
+      </c>
+      <c r="N127">
+        <v>355</v>
+      </c>
+      <c r="O127" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q127" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 355 or </v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M128" t="s">
+        <v>369</v>
+      </c>
+      <c r="N128">
+        <v>356</v>
+      </c>
+      <c r="O128" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q128" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 356 or </v>
+      </c>
+    </row>
+    <row r="129" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M129" t="s">
+        <v>369</v>
+      </c>
+      <c r="N129">
+        <v>357</v>
+      </c>
+      <c r="O129" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q129" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 357 or </v>
+      </c>
+    </row>
+    <row r="130" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M130" t="s">
+        <v>369</v>
+      </c>
+      <c r="N130">
+        <v>358</v>
+      </c>
+      <c r="O130" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q130" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 358 or </v>
+      </c>
+    </row>
+    <row r="131" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M131" t="s">
+        <v>369</v>
+      </c>
+      <c r="N131">
+        <v>359</v>
+      </c>
+      <c r="O131" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q131" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 359 or </v>
+      </c>
+    </row>
+    <row r="132" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M132" t="s">
+        <v>369</v>
+      </c>
+      <c r="N132">
+        <v>360</v>
+      </c>
+      <c r="O132" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q132" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 360 or </v>
+      </c>
+    </row>
+    <row r="133" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M133" t="s">
+        <v>369</v>
+      </c>
+      <c r="N133">
+        <v>361</v>
+      </c>
+      <c r="O133" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q133" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 361 or </v>
+      </c>
+    </row>
+    <row r="134" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M134" t="s">
+        <v>369</v>
+      </c>
+      <c r="N134">
+        <v>362</v>
+      </c>
+      <c r="O134" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q134" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 362 or </v>
+      </c>
+    </row>
+    <row r="135" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
+        <v>369</v>
+      </c>
+      <c r="N135">
+        <v>363</v>
+      </c>
+      <c r="O135" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q135" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 363 or </v>
+      </c>
+    </row>
+    <row r="136" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M136" t="s">
+        <v>369</v>
+      </c>
+      <c r="N136">
+        <v>364</v>
+      </c>
+      <c r="O136" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q136" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 364 or </v>
+      </c>
+    </row>
+    <row r="137" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>369</v>
+      </c>
+      <c r="N137">
+        <v>64</v>
+      </c>
+      <c r="O137" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q137" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 64 or </v>
+      </c>
+    </row>
+    <row r="138" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M138" t="s">
+        <v>369</v>
+      </c>
+      <c r="N138">
+        <v>49</v>
+      </c>
+      <c r="O138" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q138" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 49 or </v>
+      </c>
+    </row>
+    <row r="139" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M139" t="s">
+        <v>369</v>
+      </c>
+      <c r="N139">
+        <v>50</v>
+      </c>
+      <c r="O139" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q139" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 50 or </v>
+      </c>
+    </row>
+    <row r="140" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M140" t="s">
+        <v>369</v>
+      </c>
+      <c r="N140">
+        <v>51</v>
+      </c>
+      <c r="O140" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q140" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 51 or </v>
+      </c>
+    </row>
+    <row r="141" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M141" t="s">
+        <v>369</v>
+      </c>
+      <c r="N141">
+        <v>52</v>
+      </c>
+      <c r="O141" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q141" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 52 or </v>
+      </c>
+    </row>
+    <row r="142" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M142" t="s">
+        <v>369</v>
+      </c>
+      <c r="N142">
+        <v>53</v>
+      </c>
+      <c r="O142" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q142" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 53 or </v>
+      </c>
+    </row>
+    <row r="143" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M143" t="s">
+        <v>369</v>
+      </c>
+      <c r="N143">
+        <v>54</v>
+      </c>
+      <c r="O143" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q143" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 54 or </v>
+      </c>
+    </row>
+    <row r="144" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M144" t="s">
+        <v>369</v>
+      </c>
+      <c r="N144">
+        <v>55</v>
+      </c>
+      <c r="O144" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q144" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 55 or </v>
+      </c>
+    </row>
+    <row r="145" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M145" t="s">
+        <v>369</v>
+      </c>
+      <c r="N145">
+        <v>56</v>
+      </c>
+      <c r="O145" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q145" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 56 or </v>
+      </c>
+    </row>
+    <row r="146" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M146" t="s">
+        <v>369</v>
+      </c>
+      <c r="N146">
+        <v>57</v>
+      </c>
+      <c r="O146" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q146" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 57 or </v>
+      </c>
+    </row>
+    <row r="147" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M147" t="s">
+        <v>369</v>
+      </c>
+      <c r="N147">
+        <v>48</v>
+      </c>
+      <c r="O147" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q147" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 48 or </v>
+      </c>
+    </row>
+    <row r="148" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M148" t="s">
+        <v>369</v>
+      </c>
+      <c r="N148">
+        <v>60</v>
+      </c>
+      <c r="O148" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q148" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 60 or </v>
+      </c>
+    </row>
+    <row r="149" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M149" t="s">
+        <v>369</v>
+      </c>
+      <c r="N149">
+        <v>95</v>
+      </c>
+      <c r="O149" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q149" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 95 or </v>
+      </c>
+    </row>
+    <row r="150" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M150" t="s">
+        <v>369</v>
+      </c>
+      <c r="N150">
+        <v>81</v>
+      </c>
+      <c r="O150" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q150" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 81 or </v>
+      </c>
+    </row>
+    <row r="151" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M151" t="s">
+        <v>369</v>
+      </c>
+      <c r="N151">
+        <v>87</v>
+      </c>
+      <c r="O151" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q151" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 87 or </v>
+      </c>
+    </row>
+    <row r="152" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M152" t="s">
+        <v>369</v>
+      </c>
+      <c r="N152">
+        <v>69</v>
+      </c>
+      <c r="O152" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q152" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 69 or </v>
+      </c>
+    </row>
+    <row r="153" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M153" t="s">
+        <v>369</v>
+      </c>
+      <c r="N153">
+        <v>82</v>
+      </c>
+      <c r="O153" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q153" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 82 or </v>
+      </c>
+    </row>
+    <row r="154" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M154" t="s">
+        <v>369</v>
+      </c>
+      <c r="N154">
+        <v>84</v>
+      </c>
+      <c r="O154" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q154" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 84 or </v>
+      </c>
+    </row>
+    <row r="155" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M155" t="s">
+        <v>369</v>
+      </c>
+      <c r="N155">
+        <v>89</v>
+      </c>
+      <c r="O155" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q155" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 89 or </v>
+      </c>
+    </row>
+    <row r="156" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M156" t="s">
+        <v>369</v>
+      </c>
+      <c r="N156">
+        <v>85</v>
+      </c>
+      <c r="O156" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q156" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 85 or </v>
+      </c>
+    </row>
+    <row r="157" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M157" t="s">
+        <v>369</v>
+      </c>
+      <c r="N157">
+        <v>73</v>
+      </c>
+      <c r="O157" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q157" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 73 or </v>
+      </c>
+    </row>
+    <row r="158" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M158" t="s">
+        <v>369</v>
+      </c>
+      <c r="N158">
+        <v>79</v>
+      </c>
+      <c r="O158" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q158" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 79 or </v>
+      </c>
+    </row>
+    <row r="159" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M159" t="s">
+        <v>369</v>
+      </c>
+      <c r="N159">
+        <v>80</v>
+      </c>
+      <c r="O159" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q159" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 80 or </v>
+      </c>
+    </row>
+    <row r="160" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M160" t="s">
+        <v>369</v>
+      </c>
+      <c r="N160">
+        <v>65</v>
+      </c>
+      <c r="O160" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q160" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 65 or </v>
+      </c>
+    </row>
+    <row r="161" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M161" t="s">
+        <v>369</v>
+      </c>
+      <c r="N161">
+        <v>83</v>
+      </c>
+      <c r="O161" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q161" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 83 or </v>
+      </c>
+    </row>
+    <row r="162" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M162" t="s">
+        <v>369</v>
+      </c>
+      <c r="N162">
+        <v>68</v>
+      </c>
+      <c r="O162" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q162" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 68 or </v>
+      </c>
+    </row>
+    <row r="163" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M163" t="s">
+        <v>369</v>
+      </c>
+      <c r="N163">
+        <v>70</v>
+      </c>
+      <c r="O163" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q163" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 70 or </v>
+      </c>
+    </row>
+    <row r="164" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M164" t="s">
+        <v>369</v>
+      </c>
+      <c r="N164">
+        <v>71</v>
+      </c>
+      <c r="O164" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q164" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 71 or </v>
+      </c>
+    </row>
+    <row r="165" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M165" t="s">
+        <v>369</v>
+      </c>
+      <c r="N165">
+        <v>72</v>
+      </c>
+      <c r="O165" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q165" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 72 or </v>
+      </c>
+    </row>
+    <row r="166" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M166" t="s">
+        <v>369</v>
+      </c>
+      <c r="N166">
+        <v>74</v>
+      </c>
+      <c r="O166" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q166" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 74 or </v>
+      </c>
+    </row>
+    <row r="167" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M167" t="s">
+        <v>369</v>
+      </c>
+      <c r="N167">
+        <v>75</v>
+      </c>
+      <c r="O167" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q167" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 75 or </v>
+      </c>
+    </row>
+    <row r="168" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M168" t="s">
+        <v>369</v>
+      </c>
+      <c r="N168">
+        <v>76</v>
+      </c>
+      <c r="O168" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q168" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 76 or </v>
+      </c>
+    </row>
+    <row r="169" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M169" t="s">
+        <v>369</v>
+      </c>
+      <c r="N169">
+        <v>90</v>
+      </c>
+      <c r="O169" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q169" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 90 or </v>
+      </c>
+    </row>
+    <row r="170" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M170" t="s">
+        <v>369</v>
+      </c>
+      <c r="N170">
+        <v>88</v>
+      </c>
+      <c r="O170" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q170" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 88 or </v>
+      </c>
+    </row>
+    <row r="171" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M171" t="s">
+        <v>369</v>
+      </c>
+      <c r="N171">
+        <v>67</v>
+      </c>
+      <c r="O171" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q171" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 67 or </v>
+      </c>
+    </row>
+    <row r="172" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M172" t="s">
+        <v>369</v>
+      </c>
+      <c r="N172">
+        <v>86</v>
+      </c>
+      <c r="O172" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q172" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 86 or </v>
+      </c>
+    </row>
+    <row r="173" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M173" t="s">
+        <v>369</v>
+      </c>
+      <c r="N173">
+        <v>66</v>
+      </c>
+      <c r="O173" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q173" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 66 or </v>
+      </c>
+    </row>
+    <row r="174" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M174" t="s">
+        <v>369</v>
+      </c>
+      <c r="N174">
+        <v>78</v>
+      </c>
+      <c r="O174" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q174" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 78 or </v>
+      </c>
+    </row>
+    <row r="175" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M175" t="s">
+        <v>369</v>
+      </c>
+      <c r="N175">
+        <v>77</v>
+      </c>
+      <c r="O175" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q175" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 77 or </v>
+      </c>
+    </row>
+    <row r="176" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M176" t="s">
+        <v>369</v>
+      </c>
+      <c r="N176">
+        <v>93</v>
+      </c>
+      <c r="O176" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q176" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 93 or </v>
+      </c>
+    </row>
+    <row r="177" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M177" t="s">
+        <v>369</v>
+      </c>
+      <c r="N177">
+        <v>94</v>
+      </c>
+      <c r="O177" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q177" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 94 or </v>
+      </c>
+    </row>
+    <row r="178" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M178" t="s">
+        <v>369</v>
+      </c>
+      <c r="N178">
+        <v>92</v>
+      </c>
+      <c r="O178" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q178" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 92 or </v>
+      </c>
+    </row>
+    <row r="179" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M179" t="s">
+        <v>369</v>
+      </c>
+      <c r="N179">
+        <v>91</v>
+      </c>
+      <c r="O179" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q179" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 91 or </v>
+      </c>
+    </row>
+    <row r="180" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M180" t="s">
+        <v>369</v>
+      </c>
+      <c r="N180" s="7">
+        <v>58</v>
+      </c>
+      <c r="O180" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q180" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 58 or </v>
+      </c>
+    </row>
+    <row r="181" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M181" t="s">
+        <v>369</v>
+      </c>
+      <c r="N181">
+        <v>59</v>
+      </c>
+      <c r="O181" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q181" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 59 or </v>
+      </c>
+    </row>
+    <row r="182" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M182" t="s">
+        <v>369</v>
+      </c>
+      <c r="N182">
+        <v>61</v>
+      </c>
+      <c r="O182" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q182" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 61 or </v>
+      </c>
+    </row>
+    <row r="183" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M183" t="s">
+        <v>369</v>
+      </c>
+      <c r="N183">
+        <v>62</v>
+      </c>
+      <c r="O183" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q183" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 62 or </v>
+      </c>
+    </row>
+    <row r="184" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M184" t="s">
+        <v>369</v>
+      </c>
+      <c r="N184">
+        <v>283</v>
+      </c>
+      <c r="O184" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q184" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 283 or </v>
+      </c>
+    </row>
+    <row r="185" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M185" t="s">
+        <v>369</v>
+      </c>
+      <c r="N185">
+        <v>285</v>
+      </c>
+      <c r="O185" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q185" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 285 or </v>
+      </c>
+    </row>
+    <row r="186" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M186" t="s">
+        <v>369</v>
+      </c>
+      <c r="N186">
+        <v>4355</v>
+      </c>
+      <c r="O186" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q186" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 4355 or </v>
+      </c>
+    </row>
+    <row r="187" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M187" t="s">
+        <v>369</v>
+      </c>
+      <c r="N187">
+        <v>16646</v>
+      </c>
+      <c r="O187" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q187" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 16646 or </v>
+      </c>
+    </row>
+    <row r="188" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M188" t="s">
+        <v>369</v>
+      </c>
+      <c r="N188">
+        <v>8456</v>
+      </c>
+      <c r="O188" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q188" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 8456 or </v>
+      </c>
+    </row>
+    <row r="189" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M189" t="s">
+        <v>369</v>
+      </c>
+      <c r="N189">
+        <v>780</v>
+      </c>
+      <c r="O189" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q189" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">d == 780 or </v>
+      </c>
+    </row>
+    <row r="190" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M190" t="s">
+        <v>369</v>
+      </c>
+      <c r="N190">
+        <v>2314</v>
+      </c>
+      <c r="O190" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q190" t="str">
+        <f t="shared" ref="Q190:Q228" si="13">_xlfn.CONCAT(M190:O190)</f>
+        <v xml:space="preserve">d == 2314 or </v>
+      </c>
+    </row>
+    <row r="191" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M191" t="s">
+        <v>369</v>
+      </c>
+      <c r="N191">
+        <v>287</v>
+      </c>
+      <c r="O191" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q191" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 287 or </v>
+      </c>
+    </row>
+    <row r="192" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M192" t="s">
+        <v>369</v>
+      </c>
+      <c r="N192">
+        <v>1291</v>
+      </c>
+      <c r="O192" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q192" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 1291 or </v>
+      </c>
+    </row>
+    <row r="193" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M193" t="s">
+        <v>369</v>
+      </c>
+      <c r="N193">
+        <v>781</v>
+      </c>
+      <c r="O193" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q193" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 781 or </v>
+      </c>
+    </row>
+    <row r="194" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M194" t="s">
+        <v>369</v>
+      </c>
+      <c r="N194">
+        <v>270</v>
+      </c>
+      <c r="O194" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q194" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 270 or </v>
+      </c>
+    </row>
+    <row r="195" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M195" t="s">
+        <v>369</v>
+      </c>
+      <c r="N195">
+        <v>8457</v>
+      </c>
+      <c r="O195" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q195" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 8457 or </v>
+      </c>
+      <c r="AA195" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="196" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M196" t="s">
+        <v>369</v>
+      </c>
+      <c r="N196">
+        <v>16647</v>
+      </c>
+      <c r="O196" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q196" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 16647 or </v>
+      </c>
+    </row>
+    <row r="197" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M197" t="s">
+        <v>369</v>
+      </c>
+      <c r="N197">
+        <v>286</v>
+      </c>
+      <c r="O197" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q197" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 286 or </v>
+      </c>
+    </row>
+    <row r="198" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M198" t="s">
+        <v>369</v>
+      </c>
+      <c r="N198">
+        <v>284</v>
+      </c>
+      <c r="O198" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q198" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 284 or </v>
+      </c>
+    </row>
+    <row r="199" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M199" t="s">
+        <v>369</v>
+      </c>
+      <c r="N199">
+        <v>260</v>
+      </c>
+      <c r="O199" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q199" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 260 or </v>
+      </c>
+    </row>
+    <row r="200" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M200" t="s">
+        <v>369</v>
+      </c>
+      <c r="N200">
+        <v>258</v>
+      </c>
+      <c r="O200" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q200" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 258 or </v>
+      </c>
+    </row>
+    <row r="201" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M201" t="s">
+        <v>369</v>
+      </c>
+      <c r="N201">
+        <v>6</v>
+      </c>
+      <c r="O201" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q201" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 6 or </v>
+      </c>
+    </row>
+    <row r="202" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M202" t="s">
+        <v>369</v>
+      </c>
+      <c r="N202">
+        <v>281</v>
+      </c>
+      <c r="O202" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q202" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 281 or </v>
+      </c>
+    </row>
+    <row r="203" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M203" t="s">
+        <v>369</v>
+      </c>
+      <c r="N203">
+        <v>282</v>
+      </c>
+      <c r="O203" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q203" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 282 or </v>
+      </c>
+    </row>
+    <row r="204" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M204" t="s">
+        <v>369</v>
+      </c>
+      <c r="N204">
+        <v>273</v>
+      </c>
+      <c r="O204" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q204" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 273 or </v>
+      </c>
+      <c r="AA204" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="205" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M205" t="s">
+        <v>369</v>
+      </c>
+      <c r="N205">
+        <v>274</v>
+      </c>
+      <c r="O205" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q205" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 274 or </v>
+      </c>
+    </row>
+    <row r="206" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M206" t="s">
+        <v>369</v>
+      </c>
+      <c r="N206">
+        <v>275</v>
+      </c>
+      <c r="O206" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q206" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 275 or </v>
+      </c>
+    </row>
+    <row r="207" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M207" t="s">
+        <v>369</v>
+      </c>
+      <c r="N207">
+        <v>276</v>
+      </c>
+      <c r="O207" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q207" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 276 or </v>
+      </c>
+    </row>
+    <row r="208" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M208" t="s">
+        <v>369</v>
+      </c>
+      <c r="N208">
+        <v>279</v>
+      </c>
+      <c r="O208" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q208" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 279 or </v>
+      </c>
+    </row>
+    <row r="209" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M209" t="s">
+        <v>369</v>
+      </c>
+      <c r="N209">
+        <v>277</v>
+      </c>
+      <c r="O209" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q209" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 277 or </v>
+      </c>
+      <c r="AB209" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="210" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M210" t="s">
+        <v>369</v>
+      </c>
+      <c r="N210">
+        <v>280</v>
+      </c>
+      <c r="O210" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q210" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 280 or </v>
+      </c>
+    </row>
+    <row r="211" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M211" t="s">
+        <v>369</v>
+      </c>
+      <c r="N211">
+        <v>278</v>
+      </c>
+      <c r="O211" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q211" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 278 or </v>
+      </c>
+    </row>
+    <row r="212" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M212" t="s">
+        <v>369</v>
+      </c>
+      <c r="N212">
+        <v>257</v>
+      </c>
+      <c r="O212" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q212" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 257 or </v>
+      </c>
+    </row>
+    <row r="213" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M213" t="s">
+        <v>369</v>
+      </c>
+      <c r="N213">
+        <v>47</v>
+      </c>
+      <c r="O213" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q213" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 47 or </v>
+      </c>
+    </row>
+    <row r="214" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M214" t="s">
+        <v>369</v>
+      </c>
+      <c r="N214">
+        <v>46</v>
+      </c>
+      <c r="O214" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q214" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 46 or </v>
+      </c>
+    </row>
+    <row r="215" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M215" t="s">
+        <v>369</v>
+      </c>
+      <c r="N215">
+        <v>45</v>
+      </c>
+      <c r="O215" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q215" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 45 or </v>
+      </c>
+    </row>
+    <row r="216" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M216" t="s">
+        <v>369</v>
+      </c>
+      <c r="N216">
+        <v>32</v>
+      </c>
+      <c r="O216" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q216" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 32 or </v>
+      </c>
+    </row>
+    <row r="217" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M217" t="s">
+        <v>369</v>
+      </c>
+      <c r="N217">
+        <v>33</v>
+      </c>
+      <c r="O217" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q217" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 33 or </v>
+      </c>
+    </row>
+    <row r="218" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M218" t="s">
+        <v>369</v>
+      </c>
+      <c r="N218">
+        <v>34</v>
+      </c>
+      <c r="O218" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q218" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 34 or </v>
+      </c>
+    </row>
+    <row r="219" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M219" t="s">
+        <v>369</v>
+      </c>
+      <c r="N219">
+        <v>35</v>
+      </c>
+      <c r="O219" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q219" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 35 or </v>
+      </c>
+    </row>
+    <row r="220" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M220" t="s">
+        <v>369</v>
+      </c>
+      <c r="N220">
+        <v>36</v>
+      </c>
+      <c r="O220" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q220" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 36 or </v>
+      </c>
+    </row>
+    <row r="221" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M221" t="s">
+        <v>369</v>
+      </c>
+      <c r="N221">
+        <v>37</v>
+      </c>
+      <c r="O221" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q221" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 37 or </v>
+      </c>
+    </row>
+    <row r="222" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M222" t="s">
+        <v>369</v>
+      </c>
+      <c r="N222">
+        <v>38</v>
+      </c>
+      <c r="O222" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q222" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 38 or </v>
+      </c>
+    </row>
+    <row r="223" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M223" t="s">
+        <v>369</v>
+      </c>
+      <c r="N223">
+        <v>39</v>
+      </c>
+      <c r="O223" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q223" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 39 or </v>
+      </c>
+    </row>
+    <row r="224" spans="13:28" x14ac:dyDescent="0.25">
+      <c r="M224" t="s">
+        <v>369</v>
+      </c>
+      <c r="N224">
+        <v>40</v>
+      </c>
+      <c r="O224" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q224" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 40 or </v>
+      </c>
+    </row>
+    <row r="225" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M225" t="s">
+        <v>369</v>
+      </c>
+      <c r="N225">
+        <v>41</v>
+      </c>
+      <c r="O225" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q225" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 41 or </v>
+      </c>
+    </row>
+    <row r="226" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M226" t="s">
+        <v>369</v>
+      </c>
+      <c r="N226">
+        <v>42</v>
+      </c>
+      <c r="O226" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q226" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 42 or </v>
+      </c>
+    </row>
+    <row r="227" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M227" t="s">
+        <v>369</v>
+      </c>
+      <c r="N227">
+        <v>44</v>
+      </c>
+      <c r="O227" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q227" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 44 or </v>
+      </c>
+    </row>
+    <row r="228" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="M228" t="s">
+        <v>369</v>
+      </c>
+      <c r="N228">
+        <v>43</v>
+      </c>
+      <c r="O228" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q228" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">d == 43 or </v>
+      </c>
+    </row>
+    <row r="230" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="S230" t="str">
+        <f>_xlfn.CONCAT(Q125:Q228)</f>
+        <v xml:space="preserve">d == 353 or d == 354 or d == 355 or d == 356 or d == 357 or d == 358 or d == 359 or d == 360 or d == 361 or d == 362 or d == 363 or d == 364 or d == 64 or d == 49 or d == 50 or d == 51 or d == 52 or d == 53 or d == 54 or d == 55 or d == 56 or d == 57 or d == 48 or d == 60 or d == 95 or d == 81 or d == 87 or d == 69 or d == 82 or d == 84 or d == 89 or d == 85 or d == 73 or d == 79 or d == 80 or d == 65 or d == 83 or d == 68 or d == 70 or d == 71 or d == 72 or d == 74 or d == 75 or d == 76 or d == 90 or d == 88 or d == 67 or d == 86 or d == 66 or d == 78 or d == 77 or d == 93 or d == 94 or d == 92 or d == 91 or d == 58 or d == 59 or d == 61 or d == 62 or d == 283 or d == 285 or d == 4355 or d == 16646 or d == 8456 or d == 780 or d == 2314 or d == 287 or d == 1291 or d == 781 or d == 270 or d == 8457 or d == 16647 or d == 286 or d == 284 or d == 260 or d == 258 or d == 6 or d == 281 or d == 282 or d == 273 or d == 274 or d == 275 or d == 276 or d == 279 or d == 277 or d == 280 or d == 278 or d == 257 or d == 47 or d == 46 or d == 45 or d == 32 or d == 33 or d == 34 or d == 35 or d == 36 or d == 37 or d == 38 or d == 39 or d == 40 or d == 41 or d == 42 or d == 44 or d == 43 or </v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E131:E156">
     <sortCondition ref="E131:E156"/>
@@ -22818,8 +24416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC9E783-CD56-4A39-8EFA-27F00BE047E3}">
   <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22848,7 +24446,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -22860,7 +24458,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -22872,7 +24470,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -22884,7 +24482,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -22896,7 +24494,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -22908,7 +24506,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -22920,7 +24518,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -22932,7 +24530,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -22944,7 +24542,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -22956,7 +24554,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -22968,7 +24566,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -22980,7 +24578,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -22992,7 +24590,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -23004,7 +24602,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -23016,7 +24614,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -23028,7 +24626,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -23040,7 +24638,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -23052,7 +24650,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -23064,7 +24662,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -23076,7 +24674,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -23088,7 +24686,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -23100,7 +24698,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -23112,7 +24710,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -23124,7 +24722,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -23136,7 +24734,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -23148,7 +24746,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -23160,7 +24758,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -23172,7 +24770,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -23184,7 +24782,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -23196,7 +24794,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -23208,7 +24806,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -23220,7 +24818,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -23232,7 +24830,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>A34+1</f>
+        <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -23244,7 +24842,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -23256,7 +24854,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -23268,7 +24866,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>A37+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -23280,7 +24878,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -23292,7 +24890,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>A39+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -23304,7 +24902,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>A40+1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -23316,7 +24914,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>A41+1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -23328,7 +24926,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>A42+1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -23340,7 +24938,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>A43+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -23352,7 +24950,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>A44+1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -23364,7 +24962,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>A45+1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -23376,7 +24974,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>A46+1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -23388,7 +24986,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>A47+1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -23400,7 +24998,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>A48+1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -23412,7 +25010,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>A49+1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -23424,7 +25022,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>A50+1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -23436,7 +25034,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>A51+1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -23448,7 +25046,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>A52+1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -23460,7 +25058,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>A53+1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -23472,7 +25070,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>A54+1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -23484,7 +25082,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>A55+1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -23496,7 +25094,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>A56+1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -23508,7 +25106,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>A57+1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -23520,7 +25118,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>A58+1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -23532,7 +25130,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>A59+1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -23544,7 +25142,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>A60+1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -23556,7 +25154,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>A61+1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -23568,7 +25166,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>A62+1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -23580,7 +25178,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>A63+1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -23592,7 +25190,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>A64+1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -23604,7 +25202,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>A65+1</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -23616,7 +25214,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>A66+1</f>
+        <f t="shared" ref="A67:A98" si="2">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -23628,7 +25226,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>A67+1</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -23640,7 +25238,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>A68+1</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -23652,7 +25250,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>A69+1</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -23664,7 +25262,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>A70+1</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -23676,7 +25274,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>A71+1</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -23688,7 +25286,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>A72+1</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -23700,7 +25298,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>A73+1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -23712,7 +25310,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>A74+1</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -23724,7 +25322,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f>A75+1</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -23736,7 +25334,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f>A76+1</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -23748,7 +25346,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f>A77+1</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -23760,7 +25358,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f>A78+1</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -23772,7 +25370,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f>A79+1</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -23784,7 +25382,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f>A80+1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -23796,7 +25394,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f>A81+1</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -23808,7 +25406,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f>A82+1</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -23820,7 +25418,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f>A83+1</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -23832,7 +25430,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f>A84+1</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -23844,7 +25442,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f>A85+1</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -23856,7 +25454,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f>A86+1</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -23868,7 +25466,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f>A87+1</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -23880,7 +25478,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f>A88+1</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -23892,7 +25490,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f>A89+1</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -23904,7 +25502,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f>A90+1</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -23916,7 +25514,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f>A91+1</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -23928,7 +25526,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f>A92+1</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -23940,7 +25538,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f>A93+1</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -23952,7 +25550,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f>A94+1</f>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -23964,7 +25562,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f>A95+1</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -23976,7 +25574,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f>A96+1</f>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -23988,7 +25586,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f>A97+1</f>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -24000,7 +25598,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f>A98+1</f>
+        <f t="shared" ref="A99:A130" si="3">A98+1</f>
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -24012,7 +25610,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f>A99+1</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -24024,7 +25622,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f>A100+1</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -24036,7 +25634,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f>A101+1</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -24048,7 +25646,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f>A102+1</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -24060,7 +25658,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f>A103+1</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -24072,7 +25670,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f>A104+1</f>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -24084,7 +25682,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f>A105+1</f>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -24096,7 +25694,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f>A106+1</f>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -24108,7 +25706,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f>A107+1</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -24120,7 +25718,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f>A108+1</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -24132,7 +25730,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f>A109+1</f>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -24144,7 +25742,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f>A110+1</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -24156,7 +25754,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f>A111+1</f>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -24168,7 +25766,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f>A112+1</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -24180,7 +25778,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f>A113+1</f>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -24192,7 +25790,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f>A114+1</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -24204,7 +25802,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f>A115+1</f>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -24216,7 +25814,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f>A116+1</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -24228,7 +25826,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f>A117+1</f>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -24240,7 +25838,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f>A118+1</f>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -24252,7 +25850,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f>A119+1</f>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -24264,7 +25862,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f>A120+1</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -24276,7 +25874,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f>A121+1</f>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -24288,7 +25886,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f>A122+1</f>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -24300,7 +25898,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f>A123+1</f>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -24312,7 +25910,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f>A124+1</f>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -24324,7 +25922,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f>A125+1</f>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -24336,7 +25934,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f>A126+1</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -24348,7 +25946,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f>A127+1</f>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -24360,7 +25958,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f>A128+1</f>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -24372,7 +25970,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f>A129+1</f>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -24384,7 +25982,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f>A130+1</f>
+        <f t="shared" ref="A131:A149" si="4">A130+1</f>
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -24396,7 +25994,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f>A131+1</f>
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -24408,7 +26006,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f>A132+1</f>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -24420,7 +26018,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f>A133+1</f>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -24432,7 +26030,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f>A134+1</f>
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -24444,7 +26042,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f>A135+1</f>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -24456,7 +26054,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f>A136+1</f>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -24468,7 +26066,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f>A137+1</f>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -24480,7 +26078,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f>A138+1</f>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="B139" t="s">
@@ -24492,7 +26090,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f>A139+1</f>
+        <f t="shared" si="4"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
@@ -24504,7 +26102,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f>A140+1</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
@@ -24516,7 +26114,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f>A141+1</f>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -24528,7 +26126,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f>A142+1</f>
+        <f t="shared" si="4"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
@@ -24540,7 +26138,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f>A143+1</f>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -24552,7 +26150,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f>A144+1</f>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="B145" t="s">
@@ -24564,7 +26162,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f>A145+1</f>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
@@ -24576,7 +26174,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f>A146+1</f>
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
       <c r="B147" t="s">
@@ -24588,7 +26186,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f>A147+1</f>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="B148" t="s">
@@ -24600,7 +26198,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f>A148+1</f>
+        <f t="shared" si="4"/>
         <v>148</v>
       </c>
       <c r="B149" t="s">

--- a/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
+++ b/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work\Documents\GitHub\Scripts\SecondKeyboard\ArduinoPS2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Documents\GitHub\Scripts\SecondKeyboard\ArduinoPS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B501D0-7FD5-42FF-9989-8A18814BEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB80893-EF89-4E90-86BC-46F7ECA17B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="30960" windowHeight="17520" activeTab="5" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="341">
   <si>
     <t>&lt;value</t>
   </si>
@@ -1338,17 +1338,39 @@
     <t>18 by 18</t>
   </si>
   <si>
-    <t>19 by 19</t>
-  </si>
-  <si>
-    <t>20 by 20</t>
+    <t>Clear
+Collect</t>
+  </si>
+  <si>
+    <t>Show
+Columns</t>
+  </si>
+  <si>
+    <t>Drop
+Columns</t>
+  </si>
+  <si>
+    <t>Rename
+Columns</t>
+  </si>
+  <si>
+    <t>Add
+Columns</t>
+  </si>
+  <si>
+    <t>Is
+Blank</t>
+  </si>
+  <si>
+    <t>Is
+Empty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1419,6 +1441,34 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1473,7 +1523,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1504,10 +1554,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4463,7 +4531,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" ref="W40:W101" ca="1" si="78">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>79887abb-4d79-03b1-7059-87ada82696bc</v>
+        <v>8c6c5328-7778-8eae-4b5d-f70257cb34c6</v>
       </c>
       <c r="AE40" t="s">
         <v>54</v>
@@ -4538,7 +4606,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>beb516ee-0727-3407-8708-3a89d0201fd2</v>
+        <v>b53a045e-a1af-0e5d-508a-9139c5a841f4</v>
       </c>
       <c r="AE41" t="s">
         <v>55</v>
@@ -4613,7 +4681,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c3d7b415-9e40-83c1-375c-ec68821d46e6</v>
+        <v>ad03df1f-a431-5c7d-9b5f-7b0ca866625d</v>
       </c>
       <c r="AE42" t="s">
         <v>56</v>
@@ -4688,7 +4756,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e2b017ce-0867-4ed2-7d5c-9eb1051614a8</v>
+        <v>821c5565-59d2-2113-243e-efd5639858b1</v>
       </c>
       <c r="AE43" t="s">
         <v>57</v>
@@ -4763,7 +4831,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>318c47b0-3132-3513-592a-0eec08c5a25e</v>
+        <v>1b78cd01-0a38-7fce-1983-10e1a4a84e73</v>
       </c>
       <c r="AE44" t="s">
         <v>58</v>
@@ -4838,7 +4906,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a6f90f66-6938-a296-8d26-c769eead52ff</v>
+        <v>dedaecfa-4edb-94cd-8936-394d401e6a79</v>
       </c>
       <c r="AE45" t="s">
         <v>59</v>
@@ -4913,7 +4981,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>98b33c4e-5139-2df0-755e-aa8fe55283a2</v>
+        <v>db07ac74-8df4-8612-6124-0085510e5190</v>
       </c>
       <c r="AE46" t="s">
         <v>60</v>
@@ -4988,7 +5056,7 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>81e801bf-a0bd-274b-9b22-8987452560a0</v>
+        <v>6b875920-977d-114e-534a-3e69b67a2728</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
@@ -5057,7 +5125,7 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0f08e45a-1a01-3596-3170-6294266c4e3c</v>
+        <v>527c2c23-2ac3-975c-1a13-e5845abe8a99</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5126,7 +5194,7 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>862efa78-17f0-69d5-8783-d55183ae56af</v>
+        <v>5f0bc386-6035-5eda-3e51-aba07e6b91a6</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5195,7 +5263,7 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2a3ca50e-76e0-45ce-4ad8-7b01fdec5901</v>
+        <v>8be58ace-21bb-9b4d-a3d5-4d82b42f445a</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5264,7 +5332,7 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>73aec02c-9bc5-29c5-3762-3f0aa17b61a4</v>
+        <v>ef231ca3-96eb-30f0-87e5-e5e3fdb23471</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -5333,7 +5401,7 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ed38f8cc-918b-4aeb-95dd-6b653b374928</v>
+        <v>e1a7cc60-97eb-948d-7ba2-e56604c763c4</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -5402,7 +5470,7 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>722f3d87-1cd9-8320-7d6f-9be7f1c50afb</v>
+        <v>b7786217-131f-894b-5c5d-235627dd95d3</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -5471,7 +5539,7 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>319625b7-6c1c-8161-4bd8-a61483dc20b5</v>
+        <v>9289fbe1-5b86-7cdf-66ed-b1c291146fbd</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -5540,7 +5608,7 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4416dc3d-6f86-97a2-352c-e1702d4f2510</v>
+        <v>4bfc55cf-0d4d-855c-6272-cf5690a88d75</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5609,7 +5677,7 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>99c82d52-777a-1e51-9b86-c38811af5d2d</v>
+        <v>632e4cfa-07a6-9afd-0d61-21864edb7909</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5678,7 +5746,7 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>189742d3-343f-77d5-1f17-8a50e76641d4</v>
+        <v>e8794ff5-a269-33d7-a3b6-ae6c1ee97321</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5747,7 +5815,7 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7c83e673-04ec-5342-4a41-63c1c334a5c6</v>
+        <v>8ed66eef-2bcd-453a-8a9c-daf741c72423</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5816,7 +5884,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7e81e44f-719a-0246-0f34-401de22a55d6</v>
+        <v>735fbb0e-012e-4897-72aa-7e6515941a26</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5885,7 +5953,7 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1b0be914-40f5-45a2-53de-379faad6a55e</v>
+        <v>3294f6b7-888c-3676-a5c8-640ee21748ee</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -5954,7 +6022,7 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f4b36de8-8ec3-967f-1931-ef6c13081c6e</v>
+        <v>31b613ae-7cd3-1fab-9d39-92ab1af113ae</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -6023,7 +6091,7 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1697f4ef-608d-36dc-9bf0-56ba50439fb4</v>
+        <v>3c257d9b-89bb-a661-17f2-5945e3a07662</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -6092,7 +6160,7 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>cd8c8769-5eca-4f48-60ea-ccca328d5849</v>
+        <v>06ed7047-907a-60b1-90fc-153f93d942ca</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -6161,7 +6229,7 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>def8bb5e-212c-0fc1-9762-4913375606dc</v>
+        <v>995aba12-2efc-17ce-9501-bf7bc1495cd1</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -6230,7 +6298,7 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>09c04d63-6fef-2a61-5522-6d73b0515f8f</v>
+        <v>d63f35c7-5622-a425-4008-3dd36f6069e9</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -6299,7 +6367,7 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8caafcb2-9164-5c9d-8fc5-a737cfdf6412</v>
+        <v>f1ce363b-6313-9293-31f2-124d9d8a2f0e</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -6368,7 +6436,7 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2010c673-815b-814e-18a6-ab86cc3151d2</v>
+        <v>3c45ccb3-8e06-4c02-67f5-1dcd80a423dc</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -6437,7 +6505,7 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4262c305-9550-483f-98dc-6577993e73ad</v>
+        <v>5b9a9f16-1c3d-a21e-6226-b8b648fb4d7f</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -6506,7 +6574,7 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>987b6dce-a270-16fe-1b06-66c9e24a7ddd</v>
+        <v>a0bf471c-3db4-0996-6b5f-ea2781675d8e</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -6575,7 +6643,7 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c78d68c2-8cf2-1b26-5b5c-df1b3d504b98</v>
+        <v>e1ae1b23-9222-3c14-8cf9-8e2c00bd0ca1</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -6644,7 +6712,7 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4449936c-02f0-804a-45c8-22530d058db9</v>
+        <v>fe4b5aec-03f2-7d63-a2d7-28cc1b1a4ced</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -6713,7 +6781,7 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>77f8f795-5083-9889-84df-a9ca88361993</v>
+        <v>ccd8b5be-958a-094e-0e49-45e24a5500f2</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -6782,7 +6850,7 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7a772927-5691-3784-8fae-f09e6ae98104</v>
+        <v>1903f3c9-560c-8515-96d1-496600305932</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -6851,7 +6919,7 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>30cf5b59-3214-0d2a-080c-b0fa2ae33bcc</v>
+        <v>8fcb3c69-8d5a-9ca4-28e6-87f83fd29c3a</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -6920,7 +6988,7 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1227545a-637f-15a0-2bd9-82a9fdcf0b3f</v>
+        <v>92122a7e-5eab-8070-a371-97ce28794c75</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -6989,7 +7057,7 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>83459182-6c30-5b63-3790-1b0d78859fee</v>
+        <v>dbe8ee12-1422-0af2-0238-0418b3996eea</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -7058,7 +7126,7 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d44e0c4c-5734-7a86-1c90-d9a16edd4a4e</v>
+        <v>424cf761-037d-69f6-3dd0-81d5f30992ed</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -7127,7 +7195,7 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3597f093-6259-6f29-635f-f096f616881c</v>
+        <v>9321b270-775a-71a8-5f29-5d17c1b9223b</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -7196,7 +7264,7 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5122de70-179b-4753-98ee-63afb8fe8ffa</v>
+        <v>f14bf1f1-0477-54ee-3c98-1b95f2fc5173</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -7265,7 +7333,7 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f26912f5-62b4-88c9-62fa-da99846b4d52</v>
+        <v>6b6eaba1-8a56-341a-1a7e-723dc2830a7f</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -7334,7 +7402,7 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f9263d84-7a41-8e8a-3f4e-88ef181289bd</v>
+        <v>5678d952-9352-1216-151e-44cc902072a2</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -7403,7 +7471,7 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>897f9bb9-7c6d-732b-28e7-17643bf364c6</v>
+        <v>d96b1305-018d-6426-33e8-0710051641b4</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -7472,7 +7540,7 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f6945438-033e-5dab-0e52-e88dfe7b71fd</v>
+        <v>cf8b17a1-4197-a495-a0fb-008104f4a234</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -7541,7 +7609,7 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a9623b1c-0bab-1298-5f32-3376935b710a</v>
+        <v>57fcb8e7-5b61-9dfc-89c8-617a0c7f6b09</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -7610,7 +7678,7 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b6f6c844-292f-8ef5-21f7-9b4c588155f1</v>
+        <v>3ccc22ab-5352-3cdc-85b7-1c38014f88f2</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -7679,7 +7747,7 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4c2331ed-6cde-59b2-32b4-db25ebcc3a4a</v>
+        <v>76ff210b-4866-67bb-85e2-ac6401577783</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -7748,7 +7816,7 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e5b4a6a3-93b5-02bf-a632-790fabf720b4</v>
+        <v>c4cf820c-8439-5cd7-1b7f-7cdb62661ee3</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -7817,7 +7885,7 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>22eb8645-2f32-65e3-837d-4ed2aa2881ef</v>
+        <v>c83a87f0-3d04-84d3-9096-0fe37ffb75fd</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -7886,7 +7954,7 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0eaa0c12-071a-18a0-7cb0-25f3955a974d</v>
+        <v>033ad184-155e-15c3-656e-06e0e3c83ac7</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
@@ -7955,7 +8023,7 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>605bed43-46de-2f3a-86b9-7808d28199a3</v>
+        <v>03fa6e8a-33fc-4561-58c1-6028ea197b39</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -8024,7 +8092,7 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a697f904-88ad-04ee-426a-895ced952882</v>
+        <v>da04824d-8fba-61b1-204b-8fb6a1ee751e</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
@@ -8093,7 +8161,7 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c26c6610-6bfd-2cd6-6c86-697732dc743f</v>
+        <v>9fe64686-563e-21cc-4190-84308a2d0b98</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -8162,7 +8230,7 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>943ce7a5-39c4-4dc0-6aca-13dde3040e18</v>
+        <v>9fbc7f51-8826-2d2b-7c53-9ae3983e7749</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -8231,7 +8299,7 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>55cf35ec-152e-4fdd-5824-fe642c263b40</v>
+        <v>84678c41-0b76-6127-8d50-168a94a00033</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -8300,7 +8368,7 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b64fa467-7735-999f-01fa-34f27d89477f</v>
+        <v>9906c8e8-8569-4de2-9693-642231b887e0</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -8369,7 +8437,7 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8de84e0a-20c4-32e3-06ec-562a1a502f5d</v>
+        <v>0b0e1904-81bd-a229-a6b0-a9819ae833a5</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -8438,7 +8506,7 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>53ac602f-6030-6869-493a-bf43f69d6a64</v>
+        <v>a545f9d0-5522-1415-0912-d13257e36289</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
@@ -8506,7 +8574,7 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2cb69cfa-4c9d-8f8b-5b0d-a5b5fb7e815a</v>
+        <v>3e171012-1d24-8c17-9580-39232ae3341f</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -8574,7 +8642,7 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>541194b7-97f2-a1fc-2e3b-fd611bf93ee0</v>
+        <v>03fbdb13-6c12-8d6a-2950-559b967462b7</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
@@ -8642,7 +8710,7 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d993d9ba-0932-7586-9bad-9a5e70520173</v>
+        <v>85e4d9ee-1adb-3cc0-3ad9-fc90038628c2</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -8710,7 +8778,7 @@
       </c>
       <c r="W101" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>79730cb8-8d40-021e-360a-46c3fa125796</v>
+        <v>82760efc-a025-611e-26d7-703702095d5c</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
@@ -26081,163 +26149,149 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08AB348-6261-4BC4-AE7A-F05DC06F6D7F}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>310</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="C7" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>311</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="D7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" t="s">
-        <v>329</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G15" t="s">
-        <v>320</v>
-      </c>
-      <c r="L15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>314</v>
-      </c>
-      <c r="J16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" t="s">
         <v>322</v>
       </c>
-      <c r="L16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>315</v>
-      </c>
-      <c r="L17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>318</v>
-      </c>
-      <c r="J20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
-        <v>319</v>
-      </c>
-      <c r="J21" t="s">
-        <v>325</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>327</v>
-      </c>
-      <c r="L23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
-        <v>316</v>
-      </c>
-      <c r="J24" t="s">
-        <v>328</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="D14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>301</v>
       </c>
@@ -26249,71 +26303,89 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B6D25B-216E-49A2-A8AF-3825FD2025B9}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="11" width="9.5703125" customWidth="1"/>
+    <col min="1" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+    <row r="1" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>324</v>
+      </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="B3" s="16" t="s">
+        <v>339</v>
+      </c>
       <c r="C3" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>336</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>325</v>
+      </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="D4" s="14" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -26321,113 +26393,168 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>328</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>321</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>323</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>332</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -26438,9 +26565,10 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -26451,22 +26579,37 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
     <row r="17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26477,7 +26620,6 @@
     <row r="24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
+++ b/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Documents\GitHub\Scripts\SecondKeyboard\ArduinoPS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D060CCC0-79AD-4F3D-BC69-258F24F52D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833DB73C-7CC0-412F-A614-03D1A41A7EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" activeTab="2" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
+    <workbookView xWindow="27915" yWindow="1110" windowWidth="12150" windowHeight="21285" activeTab="2" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="351">
   <si>
     <t>&lt;value</t>
   </si>
@@ -1390,6 +1390,12 @@
   </si>
   <si>
     <t>same</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Rest can be covered using F14-24</t>
   </si>
 </sst>
 </file>
@@ -4563,7 +4569,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" ref="W40:W101" ca="1" si="78">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>0e503424-52f6-4fd0-15c9-d39d765604ee</v>
+        <v>3ca9d0b5-8d0c-9f08-a77c-8b8334401638</v>
       </c>
       <c r="AE40" t="s">
         <v>54</v>
@@ -4638,7 +4644,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>766f4842-0a33-9c29-1a1c-52793ba2681e</v>
+        <v>5a9adeda-6fad-644e-6330-932fd82269c3</v>
       </c>
       <c r="AE41" t="s">
         <v>55</v>
@@ -4713,7 +4719,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ada9b5b1-9b46-4653-6827-6cea1cd6186d</v>
+        <v>03e37eb6-0738-4c79-6cb8-6b2523f1a00e</v>
       </c>
       <c r="AE42" t="s">
         <v>56</v>
@@ -4788,7 +4794,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0e86bc8b-849d-3ae2-86d9-bb0d90c70e12</v>
+        <v>2a9ccd9a-91f3-452f-328d-415b785769fd</v>
       </c>
       <c r="AE43" t="s">
         <v>57</v>
@@ -4863,7 +4869,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d129ce9e-7a5d-1b73-1c9a-fe681ae84c2d</v>
+        <v>18e9fad8-600d-038f-6301-27e982442f82</v>
       </c>
       <c r="AE44" t="s">
         <v>58</v>
@@ -4938,7 +4944,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6260dc13-33d0-48b1-2caa-f58044db9d94</v>
+        <v>335c8f3a-58d2-3db9-0ad2-40e816d61fb2</v>
       </c>
       <c r="AE45" t="s">
         <v>59</v>
@@ -5013,7 +5019,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9ee49720-90f7-8cb5-2e03-a0317fb536e7</v>
+        <v>f124177d-0d45-0f39-4117-f8638faf77a9</v>
       </c>
       <c r="AE46" t="s">
         <v>60</v>
@@ -5088,7 +5094,7 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>675edc75-631b-2c9c-486c-28f1f1dc7b1d</v>
+        <v>006ef5a1-572b-37d6-0c5f-f2cddd010930</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
@@ -5157,7 +5163,7 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>32bcd818-1a61-19c2-995d-86dbaddd35f3</v>
+        <v>43f679bf-9801-2bc2-9aed-953ea42813cb</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5226,7 +5232,7 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2b7fbef4-3648-2180-4ee8-f98c0f0131c3</v>
+        <v>0ca5d419-2b26-2dbd-3047-aa81ba1695f6</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5295,7 +5301,7 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ff5c61cc-289f-79b6-47d2-787dde4a2cf8</v>
+        <v>2566cbac-143b-1076-7988-30d5dd4f2397</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5364,7 +5370,7 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8d9cfb1d-557a-9f37-516d-b2dcc81048c2</v>
+        <v>5832c7f0-35ec-33ce-5c69-32ac3a1a724e</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -5433,7 +5439,7 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>84ecb465-276f-7de4-0894-f2fb0fa814ef</v>
+        <v>4a5d4764-6824-9477-302e-7fd38f7957c1</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -5502,7 +5508,7 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>dd0ee527-a364-1d31-935f-df50eb2d9cca</v>
+        <v>26786943-43ce-5f16-0951-256936227a4c</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -5571,7 +5577,7 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a951fb3e-4563-3ed6-6571-7962721c80d2</v>
+        <v>9298862e-61c4-520c-28c7-ded860ff31d1</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -5640,7 +5646,7 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>94672c24-8bc9-50d5-912a-4b3748ae1d8d</v>
+        <v>7f374ce8-38dd-96b4-78f0-3e0b20f470da</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5709,7 +5715,7 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9865b941-520e-1da5-5e52-f7bf22683e79</v>
+        <v>d693edac-544e-0b24-385e-a7cd55d37b16</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5778,7 +5784,7 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>91ecee51-612c-5b6c-3fd7-ae0ffee06c3b</v>
+        <v>7423b6df-9052-071a-7183-6c1e69592e8a</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5847,7 +5853,7 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f1bb9062-4d11-0e27-5603-4dbcbeca4779</v>
+        <v>79d8144c-6759-6ec3-3847-29f378bf3b23</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5916,7 +5922,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>51e64aa4-0bff-93cb-0abf-170194cf8fc4</v>
+        <v>849a3ae9-2987-8058-0243-33a79a886633</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5985,7 +5991,7 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>22555fee-a473-5987-43dc-c3ea1a2c21a0</v>
+        <v>b1558d28-0781-8138-2894-94e7fb013407</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -6054,7 +6060,7 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e5efd3b7-3e95-17a2-3f6b-6996c6c465f8</v>
+        <v>178264c0-70c3-4559-3600-b69f3fd23f40</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -6123,7 +6129,7 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c96af67c-0e9e-98fd-301f-a220a28f76b9</v>
+        <v>c13c44cd-357d-7974-146b-731de9bc1199</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -6192,7 +6198,7 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ba77ca76-859c-0ce4-8ffa-ff5ac2da7d7b</v>
+        <v>8400d410-4658-2f1b-9475-872eaf749501</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -6261,7 +6267,7 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>64fc4874-6130-1ca2-732f-34a7bb3671c8</v>
+        <v>3ded7d7d-8c1b-49b4-1002-c97c72149286</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -6330,7 +6336,7 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2df2f657-1549-a60e-72d7-c6eeca108a93</v>
+        <v>7facb6e1-0260-8a4a-925f-9c73c828012b</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -6399,7 +6405,7 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8ee3eb67-20e3-980b-5595-3c2feea98962</v>
+        <v>045dfa8c-980a-026e-95c9-f86974794732</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -6468,7 +6474,7 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>17c76b65-7928-95d1-6b91-ab250556a743</v>
+        <v>c87517b9-65ff-2284-2cdc-96bc4066512f</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -6537,7 +6543,7 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4a842cea-952e-807c-4651-a95e417b116d</v>
+        <v>dba3745a-255e-2ae2-98c2-c6279dfc50ef</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -6606,7 +6612,7 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>629d5f69-7cac-0598-5565-b36dd1114895</v>
+        <v>44fc2722-45f9-5adc-1e07-5bf8af8b00a2</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -6675,7 +6681,7 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1611f220-1e41-62cd-7a10-0d12162a33fc</v>
+        <v>bd902d0e-a3c1-521a-7e2d-2a373fef106b</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -6744,7 +6750,7 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>aa8430a2-327f-3daa-5249-68b3fb205e08</v>
+        <v>9047fc8d-3f65-4cb7-a58e-0792747427e5</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -6813,7 +6819,7 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ff396ed8-45c6-088d-33d5-9d644227a346</v>
+        <v>0cf05eac-8c20-4ec0-7dc0-8aba5d534102</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -6882,7 +6888,7 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8d669a27-0535-2095-7420-1afd56db1b43</v>
+        <v>b27938f0-a03b-858f-2990-557c90d42085</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -6951,7 +6957,7 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>cc44c37f-0297-9355-0610-d76c8d3b9baa</v>
+        <v>c90d7a79-4697-74ff-63c0-10ba6dfd658a</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -7020,7 +7026,7 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7bed5902-7e72-26eb-8ed5-5fa4c3b164f1</v>
+        <v>833d6870-8ce2-9995-20de-794b03102f1f</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -7089,7 +7095,7 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>fa19b065-1a80-0d10-6fed-4e99fb339a31</v>
+        <v>de666723-6b53-7687-927d-70014e99337e</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -7158,7 +7164,7 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>72c5f796-6695-426c-8e8f-07da44ec6375</v>
+        <v>933b6259-9c2b-27a9-408a-f6aa0fc191c3</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -7227,7 +7233,7 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>08f195a2-096d-54af-5405-0bf876f53ed8</v>
+        <v>7922cbf1-3c15-56b9-0dc2-83b24ce99dca</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -7296,7 +7302,7 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f036ceb4-7dbf-980e-8036-0e62643e1329</v>
+        <v>e29efdc0-6db8-74ba-52b7-ebbf53279950</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -7365,7 +7371,7 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>29ef0568-1157-206c-6a24-bfe283f84167</v>
+        <v>4f7a2c9b-1331-1497-186d-31c609c2038a</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -7434,7 +7440,7 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a423e328-7757-0cc3-a468-dde457345fcf</v>
+        <v>53e237ee-3437-654e-759f-65b96a567ce3</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -7503,7 +7509,7 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f64dad8a-0645-05f2-a547-609a2d229b90</v>
+        <v>27473d88-651b-a56d-7ca9-b154e81a10c8</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -7572,7 +7578,7 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>fcc915c2-1913-852d-a1f3-21aae97366d9</v>
+        <v>4e3d1b40-a068-9fd2-3a88-7af4146c58a3</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -7641,7 +7647,7 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>52d1fb59-2a9a-98bb-2da6-7d3c154737eb</v>
+        <v>98f18ad3-6d55-5861-17bc-3bcdc9725744</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -7710,7 +7716,7 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>cf2f75e3-7594-6be1-5ec1-ef8b45e57be2</v>
+        <v>5ea2fcad-2dc1-a317-72b4-b191b55924f0</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -7779,7 +7785,7 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c8c41391-275c-3aac-8990-a78eff741535</v>
+        <v>abd0d931-5736-2802-3ec5-c7c55de5978c</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -7848,7 +7854,7 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a13bb7e5-a244-290b-8e1a-024170e320f1</v>
+        <v>f12d9a90-7392-44c9-2ec4-b67fb5da0398</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -7917,7 +7923,7 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4ab1f8a0-5b78-6c1a-21ff-e74f96e78488</v>
+        <v>8cd54ecb-773d-781c-86e6-1b4465798ba1</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -7986,7 +7992,7 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>001bfceb-34c0-113e-71d1-0f2a1e5b360c</v>
+        <v>9d955392-883f-a5ff-4f47-74c9730c8248</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
@@ -8055,7 +8061,7 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>975d9bcc-07d6-9f95-5262-d4ed3f5d6147</v>
+        <v>cbe3afaf-38dc-0d18-3928-6d854c8c6bda</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -8124,7 +8130,7 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>292cba9f-5172-438d-91a8-414bc8ac3fe6</v>
+        <v>1ea4d823-0061-588e-3f02-14ac28da40ea</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
@@ -8193,7 +8199,7 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>46773987-13ff-621b-7632-0bb7687301ab</v>
+        <v>f522cadc-9e58-4bcd-1e3b-aed1b588652c</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -8262,7 +8268,7 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6931ba01-1efd-068e-a61c-96b2d500942e</v>
+        <v>2d522597-0c4b-24f0-3c72-f512a26b3341</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -8331,7 +8337,7 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6c49db45-6fa8-10d5-3c99-34bb52b29c39</v>
+        <v>6ff0ed2f-4e18-03b8-4097-23569a6e341c</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -8400,7 +8406,7 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>29d51208-251e-6b0a-8505-bb42efc71cae</v>
+        <v>2758c195-7520-8ae3-55dc-1525ecd6162b</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -8469,7 +8475,7 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8b2a262f-906a-47ad-1a82-e09dec459533</v>
+        <v>8d22cc15-0dcf-14b1-32c3-739a56ad7f89</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -8538,7 +8544,7 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>706d27c8-2408-60e7-6bc8-7e036f93243a</v>
+        <v>6da665b8-25ab-0d35-2467-d2f5f5006439</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
@@ -8606,7 +8612,7 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>62515cca-314d-4267-4918-a771dd15526b</v>
+        <v>469412f9-51bb-3085-9524-6f97201637a5</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -8674,7 +8680,7 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>44b237c5-4d4d-88eb-2684-658d30d731ba</v>
+        <v>16a80f7e-162a-89ab-a043-d4d58f7c05ec</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
@@ -8742,7 +8748,7 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>642f4fc6-5852-2a48-344e-b7f3fede4a87</v>
+        <v>e3223c71-09bd-538b-798d-94fd557e0eb7</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -8810,7 +8816,7 @@
       </c>
       <c r="W101" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>03c075aa-8c4b-a347-3143-3aa2f9a95bb3</v>
+        <v>2486b0da-7279-2a8a-028c-8c8904c7236b</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
@@ -16962,8 +16968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764DF5AC-D634-4334-9FC6-81E3E48ADA83}">
   <dimension ref="A1:AG230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20237,7 +20243,7 @@
         <v>91</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" ref="F53:F60" si="8">E53-C53</f>
+        <f t="shared" ref="F53:F67" si="8">E53-C53</f>
         <v>-2</v>
       </c>
       <c r="G53" s="3" t="b">
@@ -20737,6 +20743,13 @@
       <c r="D61" t="s">
         <v>207</v>
       </c>
+      <c r="E61" s="3">
+        <v>177</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="8"/>
+        <v>-106</v>
+      </c>
       <c r="J61" s="11" t="s">
         <v>274</v>
       </c>
@@ -20790,6 +20803,13 @@
       <c r="D62" t="s">
         <v>207</v>
       </c>
+      <c r="E62" s="3">
+        <v>179</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="8"/>
+        <v>-106</v>
+      </c>
       <c r="J62" s="11" t="s">
         <v>274</v>
       </c>
@@ -20843,6 +20863,13 @@
       <c r="D63" t="s">
         <v>207</v>
       </c>
+      <c r="E63">
+        <v>193</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>-4162</v>
+      </c>
       <c r="J63" s="11" t="s">
         <v>274</v>
       </c>
@@ -20896,6 +20923,13 @@
       <c r="D64" t="s">
         <v>207</v>
       </c>
+      <c r="E64" s="3">
+        <v>129</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="8"/>
+        <v>-16517</v>
+      </c>
       <c r="J64" s="11" t="s">
         <v>274</v>
       </c>
@@ -20949,6 +20983,13 @@
       <c r="D65" t="s">
         <v>207</v>
       </c>
+      <c r="E65" s="3">
+        <v>128</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="8"/>
+        <v>-8328</v>
+      </c>
       <c r="J65" s="11" t="s">
         <v>274</v>
       </c>
@@ -20999,6 +21040,13 @@
       <c r="D66" t="s">
         <v>207</v>
       </c>
+      <c r="E66" s="3">
+        <v>131</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="8"/>
+        <v>-649</v>
+      </c>
       <c r="J66" s="11" t="s">
         <v>274</v>
       </c>
@@ -21049,6 +21097,13 @@
       <c r="D67" t="s">
         <v>207</v>
       </c>
+      <c r="E67" s="3">
+        <v>130</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="8"/>
+        <v>-2184</v>
+      </c>
       <c r="J67" s="11" t="s">
         <v>274</v>
       </c>
@@ -21149,6 +21204,9 @@
       <c r="D69" t="s">
         <v>207</v>
       </c>
+      <c r="E69" s="3">
+        <v>134</v>
+      </c>
       <c r="J69" s="11" t="s">
         <v>274</v>
       </c>
@@ -21199,6 +21257,12 @@
       <c r="D70" t="s">
         <v>207</v>
       </c>
+      <c r="E70" s="3">
+        <v>135</v>
+      </c>
+      <c r="F70" t="s">
+        <v>349</v>
+      </c>
       <c r="J70" s="11" t="s">
         <v>274</v>
       </c>
@@ -21249,6 +21313,12 @@
       <c r="D71" t="s">
         <v>207</v>
       </c>
+      <c r="E71" s="3">
+        <v>135</v>
+      </c>
+      <c r="F71" t="s">
+        <v>349</v>
+      </c>
       <c r="J71" s="11" t="s">
         <v>274</v>
       </c>
@@ -21299,6 +21369,9 @@
       <c r="D72" t="s">
         <v>207</v>
       </c>
+      <c r="E72" s="3">
+        <v>132</v>
+      </c>
       <c r="J72" s="11" t="s">
         <v>274</v>
       </c>
@@ -21349,6 +21422,9 @@
       <c r="D73" t="s">
         <v>207</v>
       </c>
+      <c r="E73" s="3">
+        <v>133</v>
+      </c>
       <c r="J73" s="11" t="s">
         <v>274</v>
       </c>
@@ -21399,6 +21475,9 @@
       <c r="D74" t="s">
         <v>207</v>
       </c>
+      <c r="E74" s="3">
+        <v>176</v>
+      </c>
       <c r="J74" s="11" t="s">
         <v>274</v>
       </c>
@@ -21449,6 +21528,9 @@
       <c r="D75" t="s">
         <v>207</v>
       </c>
+      <c r="E75" s="3">
+        <v>178</v>
+      </c>
       <c r="J75" s="11" t="s">
         <v>274</v>
       </c>
@@ -21498,6 +21580,9 @@
       </c>
       <c r="D76" t="s">
         <v>223</v>
+      </c>
+      <c r="F76" t="s">
+        <v>350</v>
       </c>
       <c r="J76" s="11" t="s">
         <v>274</v>

--- a/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
+++ b/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Documents\GitHub\Scripts\SecondKeyboard\ArduinoPS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833DB73C-7CC0-412F-A614-03D1A41A7EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10756584-1755-4918-94AD-3343D17682EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27915" yWindow="1110" windowWidth="12150" windowHeight="21285" activeTab="2" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" activeTab="2" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" ref="W40:W101" ca="1" si="78">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>3ca9d0b5-8d0c-9f08-a77c-8b8334401638</v>
+        <v>a6a6e3dc-65ed-9633-944d-55a2f0b361ea</v>
       </c>
       <c r="AE40" t="s">
         <v>54</v>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5a9adeda-6fad-644e-6330-932fd82269c3</v>
+        <v>9ddd214c-2311-6f06-0561-69aac2264429</v>
       </c>
       <c r="AE41" t="s">
         <v>55</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>03e37eb6-0738-4c79-6cb8-6b2523f1a00e</v>
+        <v>00edfd10-37a8-8933-4453-b408794619d6</v>
       </c>
       <c r="AE42" t="s">
         <v>56</v>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2a9ccd9a-91f3-452f-328d-415b785769fd</v>
+        <v>a6329954-3e5b-2e6b-7656-cd11a51598d1</v>
       </c>
       <c r="AE43" t="s">
         <v>57</v>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>18e9fad8-600d-038f-6301-27e982442f82</v>
+        <v>5578c23c-a084-9906-9fee-eb2d0766a0e5</v>
       </c>
       <c r="AE44" t="s">
         <v>58</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>335c8f3a-58d2-3db9-0ad2-40e816d61fb2</v>
+        <v>f838f18f-77a8-5f45-1abc-6ed0d8051d3e</v>
       </c>
       <c r="AE45" t="s">
         <v>59</v>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f124177d-0d45-0f39-4117-f8638faf77a9</v>
+        <v>95a6ce3d-1a69-7439-9c16-1c2d9b6c0ef0</v>
       </c>
       <c r="AE46" t="s">
         <v>60</v>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>006ef5a1-572b-37d6-0c5f-f2cddd010930</v>
+        <v>eaa0e9cf-5db9-4010-053e-5ec30897087f</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>43f679bf-9801-2bc2-9aed-953ea42813cb</v>
+        <v>15c837ef-48cb-70d3-71d8-d8ec194222a2</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0ca5d419-2b26-2dbd-3047-aa81ba1695f6</v>
+        <v>b33fb5a0-9ee8-9414-6bfb-c5e1c4d42361</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2566cbac-143b-1076-7988-30d5dd4f2397</v>
+        <v>2235aeb8-50da-695d-3dcf-56e04e282561</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5832c7f0-35ec-33ce-5c69-32ac3a1a724e</v>
+        <v>d46d0773-1426-47f3-97ed-a05e3b0a8248</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4a5d4764-6824-9477-302e-7fd38f7957c1</v>
+        <v>c1ac8e95-99dc-a100-966b-9c685733247b</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>26786943-43ce-5f16-0951-256936227a4c</v>
+        <v>ee4f100b-14be-809a-a446-774e96404052</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9298862e-61c4-520c-28c7-ded860ff31d1</v>
+        <v>37157f19-7315-6030-029a-1ef9ee5140cf</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7f374ce8-38dd-96b4-78f0-3e0b20f470da</v>
+        <v>a05fc247-5804-0252-6194-43ddcdd01d0e</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d693edac-544e-0b24-385e-a7cd55d37b16</v>
+        <v>4ceede03-5efd-3ab2-a602-ab44968b0e0e</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7423b6df-9052-071a-7183-6c1e69592e8a</v>
+        <v>bc3a641b-4968-11ba-2e72-0ff1edda87ca</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>79d8144c-6759-6ec3-3847-29f378bf3b23</v>
+        <v>0450f0b8-370d-83e1-6cf3-43257cc10f9f</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>849a3ae9-2987-8058-0243-33a79a886633</v>
+        <v>9b6742ee-91e9-35bf-03be-17f5e5233227</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b1558d28-0781-8138-2894-94e7fb013407</v>
+        <v>cce6acd1-750e-3f19-5ed6-dae902922e12</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>178264c0-70c3-4559-3600-b69f3fd23f40</v>
+        <v>d909350d-2f74-4aab-4964-d344dd4a18a0</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c13c44cd-357d-7974-146b-731de9bc1199</v>
+        <v>f1626ef6-7031-25e1-7bc2-e519c09a5daa</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8400d410-4658-2f1b-9475-872eaf749501</v>
+        <v>bccea1b5-70d9-698a-a238-3e7816de3494</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3ded7d7d-8c1b-49b4-1002-c97c72149286</v>
+        <v>fc0fbb26-1d7a-41d9-584e-03543b814214</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7facb6e1-0260-8a4a-925f-9c73c828012b</v>
+        <v>8a075b96-7f45-2564-56e2-d388daf58ac1</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>045dfa8c-980a-026e-95c9-f86974794732</v>
+        <v>898d938e-1f8c-5316-902c-64724e3907da</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c87517b9-65ff-2284-2cdc-96bc4066512f</v>
+        <v>850d69df-4797-36ea-91cf-24658b509eab</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>dba3745a-255e-2ae2-98c2-c6279dfc50ef</v>
+        <v>24b6e1f3-9887-982d-1494-ad73326f4128</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>44fc2722-45f9-5adc-1e07-5bf8af8b00a2</v>
+        <v>346d5ce6-5631-0f37-8872-605d3d5b1467</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bd902d0e-a3c1-521a-7e2d-2a373fef106b</v>
+        <v>28d2a9ff-3653-25b3-383f-970ff2557ecc</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9047fc8d-3f65-4cb7-a58e-0792747427e5</v>
+        <v>fd5ea240-5fde-13ff-5a91-280dc20e197b</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0cf05eac-8c20-4ec0-7dc0-8aba5d534102</v>
+        <v>432a40a7-9d9f-3b8a-6a43-0ad0cb3a87a1</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b27938f0-a03b-858f-2990-557c90d42085</v>
+        <v>99eb9772-0940-9e9c-8bb4-9760e3fd4556</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c90d7a79-4697-74ff-63c0-10ba6dfd658a</v>
+        <v>55986649-5dfa-130b-0cdd-bdff2432295c</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>833d6870-8ce2-9995-20de-794b03102f1f</v>
+        <v>e469ade4-9367-1df3-7898-ab52815f2aba</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>de666723-6b53-7687-927d-70014e99337e</v>
+        <v>d5e23aa0-988f-6a4f-3e38-fbdcddd1470f</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>933b6259-9c2b-27a9-408a-f6aa0fc191c3</v>
+        <v>c937320d-80e1-82b2-455a-52642bd52bcf</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7922cbf1-3c15-56b9-0dc2-83b24ce99dca</v>
+        <v>bc7679d9-5a44-8b75-7d29-b243acac4d40</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e29efdc0-6db8-74ba-52b7-ebbf53279950</v>
+        <v>ac7d1333-53ad-1b3e-a160-8e3e16383341</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4f7a2c9b-1331-1497-186d-31c609c2038a</v>
+        <v>42dfb1e4-1ee2-04fe-60ef-21f97be24a22</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>53e237ee-3437-654e-759f-65b96a567ce3</v>
+        <v>72507f75-8c98-5390-05af-be397d852ca0</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>27473d88-651b-a56d-7ca9-b154e81a10c8</v>
+        <v>06378be9-4b85-5f42-285e-5144391d4518</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4e3d1b40-a068-9fd2-3a88-7af4146c58a3</v>
+        <v>ece4bb54-76f9-600f-114f-9453dc2a9b60</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>98f18ad3-6d55-5861-17bc-3bcdc9725744</v>
+        <v>5dbfc32d-1a93-9ae9-20fe-68ba3ff922f0</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5ea2fcad-2dc1-a317-72b4-b191b55924f0</v>
+        <v>1e887149-250b-a08b-7456-886945501aeb</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>abd0d931-5736-2802-3ec5-c7c55de5978c</v>
+        <v>84a64059-4893-81ea-0f6a-66e87a2a1e37</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f12d9a90-7392-44c9-2ec4-b67fb5da0398</v>
+        <v>1016855e-6709-829b-0e80-d0f740d07aec</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8cd54ecb-773d-781c-86e6-1b4465798ba1</v>
+        <v>6d47e945-7ba8-798a-66a9-a965b5c53a1e</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9d955392-883f-a5ff-4f47-74c9730c8248</v>
+        <v>2e883719-7efb-4e99-7d6a-6f3850596ac7</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>cbe3afaf-38dc-0d18-3928-6d854c8c6bda</v>
+        <v>a07869ba-6e1b-8b5f-a287-600e0181230f</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1ea4d823-0061-588e-3f02-14ac28da40ea</v>
+        <v>0b868c62-67bd-4bf6-0808-29c70fd79f30</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f522cadc-9e58-4bcd-1e3b-aed1b588652c</v>
+        <v>84d65114-6c8f-15c4-5966-e35202e2381d</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2d522597-0c4b-24f0-3c72-f512a26b3341</v>
+        <v>8fda0bc5-3f36-3fa3-53e0-8fe340b48423</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6ff0ed2f-4e18-03b8-4097-23569a6e341c</v>
+        <v>3135b2de-9c60-2d88-9bb7-e5e54a224982</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2758c195-7520-8ae3-55dc-1525ecd6162b</v>
+        <v>3cdd48d6-0687-205a-8458-738100e37dd9</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8d22cc15-0dcf-14b1-32c3-739a56ad7f89</v>
+        <v>5375a742-4422-9156-8640-60f4c60f2dc4</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6da665b8-25ab-0d35-2467-d2f5f5006439</v>
+        <v>724bcad2-5454-72e7-13fb-8524a59b48fa</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>469412f9-51bb-3085-9524-6f97201637a5</v>
+        <v>69c989ea-448f-248c-97ee-45494c4a93d2</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>16a80f7e-162a-89ab-a043-d4d58f7c05ec</v>
+        <v>02b3a16e-771f-2195-59fe-2fae2c1f39b7</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e3223c71-09bd-538b-798d-94fd557e0eb7</v>
+        <v>5a8f01ff-1448-5e5a-8c51-f733e99a5e3d</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="W101" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2486b0da-7279-2a8a-028c-8c8904c7236b</v>
+        <v>aecca6b7-4772-1c84-3386-f7789a98843d</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
@@ -16968,8 +16968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764DF5AC-D634-4334-9FC6-81E3E48ADA83}">
   <dimension ref="A1:AG230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20243,7 +20243,7 @@
         <v>91</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" ref="F53:F67" si="8">E53-C53</f>
+        <f t="shared" ref="F53:F69" si="8">E53-C53</f>
         <v>-2</v>
       </c>
       <c r="G53" s="3" t="b">
@@ -21207,6 +21207,10 @@
       <c r="E69" s="3">
         <v>134</v>
       </c>
+      <c r="F69" s="3">
+        <f t="shared" si="8"/>
+        <v>-1157</v>
+      </c>
       <c r="J69" s="11" t="s">
         <v>274</v>
       </c>
@@ -21372,6 +21376,10 @@
       <c r="E72" s="3">
         <v>132</v>
       </c>
+      <c r="F72" s="3">
+        <f t="shared" ref="F72:F74" si="14">E72-C72</f>
+        <v>-8325</v>
+      </c>
       <c r="J72" s="11" t="s">
         <v>274</v>
       </c>
@@ -21425,6 +21433,10 @@
       <c r="E73" s="3">
         <v>133</v>
       </c>
+      <c r="F73" s="3">
+        <f t="shared" si="14"/>
+        <v>-16514</v>
+      </c>
       <c r="J73" s="11" t="s">
         <v>274</v>
       </c>
@@ -21478,6 +21490,10 @@
       <c r="E74" s="3">
         <v>176</v>
       </c>
+      <c r="F74" s="3">
+        <f t="shared" si="14"/>
+        <v>-110</v>
+      </c>
       <c r="J74" s="11" t="s">
         <v>274</v>
       </c>
@@ -21531,6 +21547,10 @@
       <c r="E75" s="3">
         <v>178</v>
       </c>
+      <c r="F75" s="3">
+        <f t="shared" ref="F75" si="15">E75-C75</f>
+        <v>-106</v>
+      </c>
       <c r="J75" s="11" t="s">
         <v>274</v>
       </c>
@@ -21738,7 +21758,7 @@
         <v>209</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" ref="F79:F84" si="14">E79-C79</f>
+        <f t="shared" ref="F79:F84" si="16">E79-C79</f>
         <v>-72</v>
       </c>
       <c r="G79" s="3" t="b">
@@ -21802,7 +21822,7 @@
         <v>212</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-70</v>
       </c>
       <c r="G80" s="3" t="b">
@@ -21862,7 +21882,7 @@
         <v>210</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-63</v>
       </c>
       <c r="G81" s="3" t="b">
@@ -21922,7 +21942,7 @@
         <v>213</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-61</v>
       </c>
       <c r="G82" s="3" t="b">
@@ -21982,7 +22002,7 @@
         <v>211</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-64</v>
       </c>
       <c r="G83" s="3" t="b">
@@ -22042,7 +22062,7 @@
         <v>214</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-62</v>
       </c>
       <c r="G84" s="3" t="b">
@@ -22102,7 +22122,7 @@
         <v>218</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" ref="F85:F88" si="15">E85-C85</f>
+        <f t="shared" ref="F85:F88" si="17">E85-C85</f>
         <v>-61</v>
       </c>
       <c r="G85" s="3" t="b">
@@ -22162,7 +22182,7 @@
         <v>216</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-61</v>
       </c>
       <c r="G86" s="3" t="b">
@@ -22222,7 +22242,7 @@
         <v>217</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-63</v>
       </c>
       <c r="G87" s="3" t="b">
@@ -22282,7 +22302,7 @@
         <v>215</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-63</v>
       </c>
       <c r="G88" s="3" t="b">
@@ -22887,7 +22907,7 @@
         <v>276</v>
       </c>
       <c r="O98" s="3" t="str">
-        <f t="shared" ref="O98:O105" si="16">_xlfn.CONCAT(J98:M98)</f>
+        <f t="shared" ref="O98:O105" si="18">_xlfn.CONCAT(J98:M98)</f>
         <v xml:space="preserve">case 37:
 Keyboard.print("ino|");
 PrintNumpad(c);
@@ -22946,7 +22966,7 @@
         <v>276</v>
       </c>
       <c r="O99" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">case 38:
 Keyboard.print("ino|");
 PrintNumpad(c);
@@ -23005,7 +23025,7 @@
         <v>276</v>
       </c>
       <c r="O100" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">case 39:
 Keyboard.print("ino|");
 PrintNumpad(c);
@@ -23064,7 +23084,7 @@
         <v>276</v>
       </c>
       <c r="O101" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">case 40:
 Keyboard.print("ino|");
 PrintNumpad(c);
@@ -23123,7 +23143,7 @@
         <v>276</v>
       </c>
       <c r="O102" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">case 41:
 Keyboard.print("ino|");
 PrintNumpad(c);
@@ -23183,7 +23203,7 @@
         <v>276</v>
       </c>
       <c r="O103" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">case 42:
 Keyboard.print("ino|");
 PrintNumpad(c);
@@ -23243,7 +23263,7 @@
         <v>276</v>
       </c>
       <c r="O104" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">case 44:
 Keyboard.print("ino|");
 PrintNumpad(c);
@@ -23303,7 +23323,7 @@
         <v>276</v>
       </c>
       <c r="O105" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">case 43:
 Keyboard.print("ino|");
 PrintNumpad(c);
@@ -23424,7 +23444,7 @@
         <v>297</v>
       </c>
       <c r="R126" t="str">
-        <f t="shared" ref="R126:R189" si="17">_xlfn.CONCAT(N126:P126)</f>
+        <f t="shared" ref="R126:R189" si="19">_xlfn.CONCAT(N126:P126)</f>
         <v xml:space="preserve">d == 354 or </v>
       </c>
     </row>
@@ -23439,7 +23459,7 @@
         <v>297</v>
       </c>
       <c r="R127" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 355 or </v>
       </c>
     </row>
@@ -23457,7 +23477,7 @@
         <v>297</v>
       </c>
       <c r="R128" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 356 or </v>
       </c>
     </row>
@@ -23472,7 +23492,7 @@
         <v>297</v>
       </c>
       <c r="R129" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 357 or </v>
       </c>
     </row>
@@ -23490,7 +23510,7 @@
         <v>297</v>
       </c>
       <c r="R130" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 358 or </v>
       </c>
     </row>
@@ -23514,7 +23534,7 @@
         <v>297</v>
       </c>
       <c r="R131" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 359 or </v>
       </c>
     </row>
@@ -23541,7 +23561,7 @@
         <v>297</v>
       </c>
       <c r="R132" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 360 or </v>
       </c>
     </row>
@@ -23571,7 +23591,7 @@
         <v>297</v>
       </c>
       <c r="R133" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 361 or </v>
       </c>
     </row>
@@ -23607,7 +23627,7 @@
         <v>297</v>
       </c>
       <c r="R134" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 362 or </v>
       </c>
     </row>
@@ -23643,7 +23663,7 @@
         <v>297</v>
       </c>
       <c r="R135" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 363 or </v>
       </c>
     </row>
@@ -23679,7 +23699,7 @@
         <v>297</v>
       </c>
       <c r="R136" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 364 or </v>
       </c>
     </row>
@@ -23715,7 +23735,7 @@
         <v>297</v>
       </c>
       <c r="R137" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 64 or </v>
       </c>
     </row>
@@ -23754,7 +23774,7 @@
         <v>297</v>
       </c>
       <c r="R138" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 49 or </v>
       </c>
     </row>
@@ -23790,7 +23810,7 @@
         <v>297</v>
       </c>
       <c r="R139" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 50 or </v>
       </c>
     </row>
@@ -23826,7 +23846,7 @@
         <v>297</v>
       </c>
       <c r="R140" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 51 or </v>
       </c>
     </row>
@@ -23862,7 +23882,7 @@
         <v>297</v>
       </c>
       <c r="R141" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 52 or </v>
       </c>
     </row>
@@ -23898,7 +23918,7 @@
         <v>297</v>
       </c>
       <c r="R142" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 53 or </v>
       </c>
     </row>
@@ -23934,7 +23954,7 @@
         <v>297</v>
       </c>
       <c r="R143" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 54 or </v>
       </c>
     </row>
@@ -23970,7 +23990,7 @@
         <v>297</v>
       </c>
       <c r="R144" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 55 or </v>
       </c>
     </row>
@@ -24006,7 +24026,7 @@
         <v>297</v>
       </c>
       <c r="R145" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 56 or </v>
       </c>
     </row>
@@ -24045,7 +24065,7 @@
         <v>297</v>
       </c>
       <c r="R146" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 57 or </v>
       </c>
     </row>
@@ -24081,7 +24101,7 @@
         <v>297</v>
       </c>
       <c r="R147" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 48 or </v>
       </c>
     </row>
@@ -24105,7 +24125,7 @@
         <v>297</v>
       </c>
       <c r="R148" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 60 or </v>
       </c>
     </row>
@@ -24129,7 +24149,7 @@
         <v>297</v>
       </c>
       <c r="R149" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 95 or </v>
       </c>
     </row>
@@ -24144,7 +24164,7 @@
         <v>297</v>
       </c>
       <c r="R150" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 81 or </v>
       </c>
     </row>
@@ -24159,7 +24179,7 @@
         <v>297</v>
       </c>
       <c r="R151" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 87 or </v>
       </c>
     </row>
@@ -24174,7 +24194,7 @@
         <v>297</v>
       </c>
       <c r="R152" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 69 or </v>
       </c>
     </row>
@@ -24189,7 +24209,7 @@
         <v>297</v>
       </c>
       <c r="R153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 82 or </v>
       </c>
     </row>
@@ -24204,7 +24224,7 @@
         <v>297</v>
       </c>
       <c r="R154" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 84 or </v>
       </c>
     </row>
@@ -24219,7 +24239,7 @@
         <v>297</v>
       </c>
       <c r="R155" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 89 or </v>
       </c>
     </row>
@@ -24234,7 +24254,7 @@
         <v>297</v>
       </c>
       <c r="R156" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 85 or </v>
       </c>
     </row>
@@ -24249,7 +24269,7 @@
         <v>297</v>
       </c>
       <c r="R157" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 73 or </v>
       </c>
     </row>
@@ -24264,7 +24284,7 @@
         <v>297</v>
       </c>
       <c r="R158" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 79 or </v>
       </c>
     </row>
@@ -24279,7 +24299,7 @@
         <v>297</v>
       </c>
       <c r="R159" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 80 or </v>
       </c>
     </row>
@@ -24294,7 +24314,7 @@
         <v>297</v>
       </c>
       <c r="R160" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 65 or </v>
       </c>
     </row>
@@ -24309,7 +24329,7 @@
         <v>297</v>
       </c>
       <c r="R161" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 83 or </v>
       </c>
     </row>
@@ -24324,7 +24344,7 @@
         <v>297</v>
       </c>
       <c r="R162" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 68 or </v>
       </c>
     </row>
@@ -24339,7 +24359,7 @@
         <v>297</v>
       </c>
       <c r="R163" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 70 or </v>
       </c>
     </row>
@@ -24354,7 +24374,7 @@
         <v>297</v>
       </c>
       <c r="R164" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 71 or </v>
       </c>
     </row>
@@ -24369,7 +24389,7 @@
         <v>297</v>
       </c>
       <c r="R165" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 72 or </v>
       </c>
     </row>
@@ -24384,7 +24404,7 @@
         <v>297</v>
       </c>
       <c r="R166" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 74 or </v>
       </c>
     </row>
@@ -24399,7 +24419,7 @@
         <v>297</v>
       </c>
       <c r="R167" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 75 or </v>
       </c>
     </row>
@@ -24414,7 +24434,7 @@
         <v>297</v>
       </c>
       <c r="R168" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 76 or </v>
       </c>
     </row>
@@ -24429,7 +24449,7 @@
         <v>297</v>
       </c>
       <c r="R169" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 90 or </v>
       </c>
     </row>
@@ -24444,7 +24464,7 @@
         <v>297</v>
       </c>
       <c r="R170" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 88 or </v>
       </c>
     </row>
@@ -24459,7 +24479,7 @@
         <v>297</v>
       </c>
       <c r="R171" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 67 or </v>
       </c>
     </row>
@@ -24474,7 +24494,7 @@
         <v>297</v>
       </c>
       <c r="R172" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 86 or </v>
       </c>
     </row>
@@ -24489,7 +24509,7 @@
         <v>297</v>
       </c>
       <c r="R173" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 66 or </v>
       </c>
     </row>
@@ -24504,7 +24524,7 @@
         <v>297</v>
       </c>
       <c r="R174" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 78 or </v>
       </c>
     </row>
@@ -24519,7 +24539,7 @@
         <v>297</v>
       </c>
       <c r="R175" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 77 or </v>
       </c>
     </row>
@@ -24534,7 +24554,7 @@
         <v>297</v>
       </c>
       <c r="R176" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 93 or </v>
       </c>
     </row>
@@ -24549,7 +24569,7 @@
         <v>297</v>
       </c>
       <c r="R177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 94 or </v>
       </c>
     </row>
@@ -24564,7 +24584,7 @@
         <v>297</v>
       </c>
       <c r="R178" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 92 or </v>
       </c>
     </row>
@@ -24579,7 +24599,7 @@
         <v>297</v>
       </c>
       <c r="R179" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 91 or </v>
       </c>
     </row>
@@ -24594,7 +24614,7 @@
         <v>297</v>
       </c>
       <c r="R180" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 58 or </v>
       </c>
     </row>
@@ -24609,7 +24629,7 @@
         <v>297</v>
       </c>
       <c r="R181" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 59 or </v>
       </c>
     </row>
@@ -24624,7 +24644,7 @@
         <v>297</v>
       </c>
       <c r="R182" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 61 or </v>
       </c>
     </row>
@@ -24639,7 +24659,7 @@
         <v>297</v>
       </c>
       <c r="R183" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 62 or </v>
       </c>
     </row>
@@ -24654,7 +24674,7 @@
         <v>297</v>
       </c>
       <c r="R184" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 283 or </v>
       </c>
     </row>
@@ -24669,7 +24689,7 @@
         <v>297</v>
       </c>
       <c r="R185" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 285 or </v>
       </c>
     </row>
@@ -24684,7 +24704,7 @@
         <v>297</v>
       </c>
       <c r="R186" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 4355 or </v>
       </c>
     </row>
@@ -24699,7 +24719,7 @@
         <v>297</v>
       </c>
       <c r="R187" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 16646 or </v>
       </c>
     </row>
@@ -24714,7 +24734,7 @@
         <v>297</v>
       </c>
       <c r="R188" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 8456 or </v>
       </c>
     </row>
@@ -24729,7 +24749,7 @@
         <v>297</v>
       </c>
       <c r="R189" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">d == 780 or </v>
       </c>
     </row>
@@ -24744,7 +24764,7 @@
         <v>297</v>
       </c>
       <c r="R190" t="str">
-        <f t="shared" ref="R190:R228" si="18">_xlfn.CONCAT(N190:P190)</f>
+        <f t="shared" ref="R190:R228" si="20">_xlfn.CONCAT(N190:P190)</f>
         <v xml:space="preserve">d == 2314 or </v>
       </c>
     </row>
@@ -24759,7 +24779,7 @@
         <v>297</v>
       </c>
       <c r="R191" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 287 or </v>
       </c>
     </row>
@@ -24774,7 +24794,7 @@
         <v>297</v>
       </c>
       <c r="R192" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 1291 or </v>
       </c>
     </row>
@@ -24789,7 +24809,7 @@
         <v>297</v>
       </c>
       <c r="R193" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 781 or </v>
       </c>
     </row>
@@ -24804,7 +24824,7 @@
         <v>297</v>
       </c>
       <c r="R194" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 270 or </v>
       </c>
     </row>
@@ -24819,7 +24839,7 @@
         <v>297</v>
       </c>
       <c r="R195" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 8457 or </v>
       </c>
       <c r="AB195" t="s">
@@ -24837,7 +24857,7 @@
         <v>297</v>
       </c>
       <c r="R196" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 16647 or </v>
       </c>
     </row>
@@ -24852,7 +24872,7 @@
         <v>297</v>
       </c>
       <c r="R197" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 286 or </v>
       </c>
     </row>
@@ -24867,7 +24887,7 @@
         <v>297</v>
       </c>
       <c r="R198" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 284 or </v>
       </c>
     </row>
@@ -24882,7 +24902,7 @@
         <v>297</v>
       </c>
       <c r="R199" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 260 or </v>
       </c>
     </row>
@@ -24897,7 +24917,7 @@
         <v>297</v>
       </c>
       <c r="R200" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 258 or </v>
       </c>
     </row>
@@ -24912,7 +24932,7 @@
         <v>297</v>
       </c>
       <c r="R201" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 6 or </v>
       </c>
     </row>
@@ -24927,7 +24947,7 @@
         <v>297</v>
       </c>
       <c r="R202" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 281 or </v>
       </c>
     </row>
@@ -24942,7 +24962,7 @@
         <v>297</v>
       </c>
       <c r="R203" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 282 or </v>
       </c>
     </row>
@@ -24957,7 +24977,7 @@
         <v>297</v>
       </c>
       <c r="R204" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 273 or </v>
       </c>
       <c r="AB204" t="s">
@@ -24975,7 +24995,7 @@
         <v>297</v>
       </c>
       <c r="R205" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 274 or </v>
       </c>
     </row>
@@ -24990,7 +25010,7 @@
         <v>297</v>
       </c>
       <c r="R206" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 275 or </v>
       </c>
     </row>
@@ -25005,7 +25025,7 @@
         <v>297</v>
       </c>
       <c r="R207" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 276 or </v>
       </c>
     </row>
@@ -25020,7 +25040,7 @@
         <v>297</v>
       </c>
       <c r="R208" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 279 or </v>
       </c>
     </row>
@@ -25035,7 +25055,7 @@
         <v>297</v>
       </c>
       <c r="R209" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 277 or </v>
       </c>
       <c r="AC209" t="s">
@@ -25053,7 +25073,7 @@
         <v>297</v>
       </c>
       <c r="R210" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 280 or </v>
       </c>
     </row>
@@ -25068,7 +25088,7 @@
         <v>297</v>
       </c>
       <c r="R211" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 278 or </v>
       </c>
     </row>
@@ -25083,7 +25103,7 @@
         <v>297</v>
       </c>
       <c r="R212" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 257 or </v>
       </c>
     </row>
@@ -25098,7 +25118,7 @@
         <v>297</v>
       </c>
       <c r="R213" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 47 or </v>
       </c>
     </row>
@@ -25113,7 +25133,7 @@
         <v>297</v>
       </c>
       <c r="R214" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 46 or </v>
       </c>
     </row>
@@ -25128,7 +25148,7 @@
         <v>297</v>
       </c>
       <c r="R215" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 45 or </v>
       </c>
     </row>
@@ -25143,7 +25163,7 @@
         <v>297</v>
       </c>
       <c r="R216" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 32 or </v>
       </c>
     </row>
@@ -25158,7 +25178,7 @@
         <v>297</v>
       </c>
       <c r="R217" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 33 or </v>
       </c>
     </row>
@@ -25173,7 +25193,7 @@
         <v>297</v>
       </c>
       <c r="R218" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 34 or </v>
       </c>
     </row>
@@ -25188,7 +25208,7 @@
         <v>297</v>
       </c>
       <c r="R219" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 35 or </v>
       </c>
     </row>
@@ -25203,7 +25223,7 @@
         <v>297</v>
       </c>
       <c r="R220" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 36 or </v>
       </c>
     </row>
@@ -25218,7 +25238,7 @@
         <v>297</v>
       </c>
       <c r="R221" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 37 or </v>
       </c>
     </row>
@@ -25233,7 +25253,7 @@
         <v>297</v>
       </c>
       <c r="R222" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 38 or </v>
       </c>
     </row>
@@ -25248,7 +25268,7 @@
         <v>297</v>
       </c>
       <c r="R223" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 39 or </v>
       </c>
     </row>
@@ -25263,7 +25283,7 @@
         <v>297</v>
       </c>
       <c r="R224" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 40 or </v>
       </c>
     </row>
@@ -25278,7 +25298,7 @@
         <v>297</v>
       </c>
       <c r="R225" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 41 or </v>
       </c>
     </row>
@@ -25293,7 +25313,7 @@
         <v>297</v>
       </c>
       <c r="R226" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 42 or </v>
       </c>
     </row>
@@ -25308,7 +25328,7 @@
         <v>297</v>
       </c>
       <c r="R227" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 44 or </v>
       </c>
     </row>
@@ -25323,7 +25343,7 @@
         <v>297</v>
       </c>
       <c r="R228" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">d == 43 or </v>
       </c>
     </row>

--- a/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
+++ b/SecondKeyboard/ArduinoPS2/ArduinoAHKSriptCreator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Documents\GitHub\Scripts\SecondKeyboard\ArduinoPS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10756584-1755-4918-94AD-3343D17682EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189AF8B9-7501-4540-AF58-3755F0176631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" activeTab="2" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="353">
   <si>
     <t>&lt;value</t>
   </si>
@@ -1397,12 +1397,18 @@
   <si>
     <t>Rest can be covered using F14-24</t>
   </si>
+  <si>
+    <t>right window</t>
+  </si>
+  <si>
+    <t>0xED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,6 +1507,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1555,7 +1567,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1615,6 +1627,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4569,7 +4582,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" ref="W40:W101" ca="1" si="78">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>a6a6e3dc-65ed-9633-944d-55a2f0b361ea</v>
+        <v>1aefebf1-3e0f-a31b-7190-e65345c82f61</v>
       </c>
       <c r="AE40" t="s">
         <v>54</v>
@@ -4644,7 +4657,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9ddd214c-2311-6f06-0561-69aac2264429</v>
+        <v>79612793-35e0-1aaa-34a9-45aafcb54fbb</v>
       </c>
       <c r="AE41" t="s">
         <v>55</v>
@@ -4719,7 +4732,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>00edfd10-37a8-8933-4453-b408794619d6</v>
+        <v>00acdb2e-6565-05c3-4c2e-d5f330b492a6</v>
       </c>
       <c r="AE42" t="s">
         <v>56</v>
@@ -4794,7 +4807,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a6329954-3e5b-2e6b-7656-cd11a51598d1</v>
+        <v>eeb44aef-1c9f-0ae9-346c-848dd0587536</v>
       </c>
       <c r="AE43" t="s">
         <v>57</v>
@@ -4869,7 +4882,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5578c23c-a084-9906-9fee-eb2d0766a0e5</v>
+        <v>6f68d101-965c-8fb2-5be7-cb07a5b901fa</v>
       </c>
       <c r="AE44" t="s">
         <v>58</v>
@@ -4944,7 +4957,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f838f18f-77a8-5f45-1abc-6ed0d8051d3e</v>
+        <v>4aaa8044-5467-24b8-763d-8e9ca7421b23</v>
       </c>
       <c r="AE45" t="s">
         <v>59</v>
@@ -5019,7 +5032,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>95a6ce3d-1a69-7439-9c16-1c2d9b6c0ef0</v>
+        <v>a4f05bba-78a1-3036-0ff4-389fb63563a0</v>
       </c>
       <c r="AE46" t="s">
         <v>60</v>
@@ -5094,7 +5107,7 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>eaa0e9cf-5db9-4010-053e-5ec30897087f</v>
+        <v>6b580ade-371a-9e5c-282d-84c08c518c4d</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
@@ -5163,7 +5176,7 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>15c837ef-48cb-70d3-71d8-d8ec194222a2</v>
+        <v>9808bc3a-4fb1-89fa-7298-a6ee78a00db1</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5232,7 +5245,7 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b33fb5a0-9ee8-9414-6bfb-c5e1c4d42361</v>
+        <v>2730870b-33b2-96a4-8547-60339ea33881</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5301,7 +5314,7 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2235aeb8-50da-695d-3dcf-56e04e282561</v>
+        <v>e6c66ff1-98b5-a0b5-49dd-f69400133fe8</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5370,7 +5383,7 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d46d0773-1426-47f3-97ed-a05e3b0a8248</v>
+        <v>1e5fee55-71af-842e-08cc-5dee896c8afb</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -5439,7 +5452,7 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c1ac8e95-99dc-a100-966b-9c685733247b</v>
+        <v>5b38eeb0-7507-5a89-2203-0bcc5a765c9e</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -5508,7 +5521,7 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ee4f100b-14be-809a-a446-774e96404052</v>
+        <v>7df819dd-7ec6-60b5-25c3-df76947a1073</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -5577,7 +5590,7 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>37157f19-7315-6030-029a-1ef9ee5140cf</v>
+        <v>400f1581-584f-6d49-2a64-4efe9b1450d8</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -5646,7 +5659,7 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a05fc247-5804-0252-6194-43ddcdd01d0e</v>
+        <v>55a3894e-338a-1397-0c58-06585d3da675</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5715,7 +5728,7 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4ceede03-5efd-3ab2-a602-ab44968b0e0e</v>
+        <v>42c9edd0-37af-118a-5e07-5566c9247392</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5784,7 +5797,7 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bc3a641b-4968-11ba-2e72-0ff1edda87ca</v>
+        <v>893ed531-4619-1ede-40a5-94be507f2d48</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5853,7 +5866,7 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0450f0b8-370d-83e1-6cf3-43257cc10f9f</v>
+        <v>b9d565a5-1fef-8f00-0dc2-258222219700</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5922,7 +5935,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9b6742ee-91e9-35bf-03be-17f5e5233227</v>
+        <v>16f79d32-9c3b-39a6-438d-fcfa30588dc9</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5991,7 +6004,7 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>cce6acd1-750e-3f19-5ed6-dae902922e12</v>
+        <v>cc9d4f63-4b3f-8433-9c87-f0bfd0955ecb</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -6060,7 +6073,7 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d909350d-2f74-4aab-4964-d344dd4a18a0</v>
+        <v>f2506972-6d78-a344-0b92-3874377e35b7</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -6129,7 +6142,7 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f1626ef6-7031-25e1-7bc2-e519c09a5daa</v>
+        <v>5f6f03c4-5752-21e0-8c00-142dd3b26277</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -6198,7 +6211,7 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bccea1b5-70d9-698a-a238-3e7816de3494</v>
+        <v>5eb583cb-2963-15ab-9c14-294c28af254c</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -6267,7 +6280,7 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>fc0fbb26-1d7a-41d9-584e-03543b814214</v>
+        <v>0e7c0508-69cd-67f3-883e-ff54f15e2e4a</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -6336,7 +6349,7 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8a075b96-7f45-2564-56e2-d388daf58ac1</v>
+        <v>619679e6-1ad6-63ea-24b2-3af339ef6b7c</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -6405,7 +6418,7 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>898d938e-1f8c-5316-902c-64724e3907da</v>
+        <v>ff8bfb3b-446b-7737-6572-e6ade34f1330</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -6474,7 +6487,7 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>850d69df-4797-36ea-91cf-24658b509eab</v>
+        <v>74500e14-74d5-006b-91ae-436a63646958</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -6543,7 +6556,7 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>24b6e1f3-9887-982d-1494-ad73326f4128</v>
+        <v>4fb3f9be-0b19-a099-2692-c6fee2a33966</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -6612,7 +6625,7 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>346d5ce6-5631-0f37-8872-605d3d5b1467</v>
+        <v>ac9fd590-411b-81bf-8783-745068c7656d</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -6681,7 +6694,7 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>28d2a9ff-3653-25b3-383f-970ff2557ecc</v>
+        <v>54672197-a52e-a524-104c-7d95e49b9660</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -6750,7 +6763,7 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>fd5ea240-5fde-13ff-5a91-280dc20e197b</v>
+        <v>77158d46-58c6-4b90-a0db-819c33bc5b1b</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -6819,7 +6832,7 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>432a40a7-9d9f-3b8a-6a43-0ad0cb3a87a1</v>
+        <v>8b450bcc-a164-68f4-5a41-8168508e6150</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -6888,7 +6901,7 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>99eb9772-0940-9e9c-8bb4-9760e3fd4556</v>
+        <v>5c235ca4-29f3-483b-7257-a44edcb3903e</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -6957,7 +6970,7 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>55986649-5dfa-130b-0cdd-bdff2432295c</v>
+        <v>9214f32f-79ce-365c-901a-34d4c8db2c9d</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -7026,7 +7039,7 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e469ade4-9367-1df3-7898-ab52815f2aba</v>
+        <v>e035b5e0-661a-4372-5639-891a2a1a31e0</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -7095,7 +7108,7 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d5e23aa0-988f-6a4f-3e38-fbdcddd1470f</v>
+        <v>54b706b7-2369-5b07-4949-6e4b69d441ce</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -7164,7 +7177,7 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c937320d-80e1-82b2-455a-52642bd52bcf</v>
+        <v>998d65f1-4d6d-a61e-3d9a-b38ddcfa1310</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -7233,7 +7246,7 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bc7679d9-5a44-8b75-7d29-b243acac4d40</v>
+        <v>f68147c5-7b52-917c-89ac-bf536804337c</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -7302,7 +7315,7 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ac7d1333-53ad-1b3e-a160-8e3e16383341</v>
+        <v>b9cbc647-2c25-153f-21bb-27b3b1a999be</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -7371,7 +7384,7 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>42dfb1e4-1ee2-04fe-60ef-21f97be24a22</v>
+        <v>c7b96fd5-4fd6-533c-8308-263e855e5e84</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -7440,7 +7453,7 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>72507f75-8c98-5390-05af-be397d852ca0</v>
+        <v>4e68a465-3fb8-8972-908f-158457d297f4</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -7509,7 +7522,7 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>06378be9-4b85-5f42-285e-5144391d4518</v>
+        <v>5043f897-89ac-1e1f-368c-87efabd82b2c</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -7578,7 +7591,7 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ece4bb54-76f9-600f-114f-9453dc2a9b60</v>
+        <v>b58d7e8c-7c4e-8d98-62e0-3e17d5ca85a5</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -7647,7 +7660,7 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5dbfc32d-1a93-9ae9-20fe-68ba3ff922f0</v>
+        <v>3b0d47aa-5bfe-9f3d-9ddd-c0c1a3c51be0</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -7716,7 +7729,7 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1e887149-250b-a08b-7456-886945501aeb</v>
+        <v>8ca0345f-3054-4c67-3ae5-3ff5bbada41a</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -7785,7 +7798,7 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>84a64059-4893-81ea-0f6a-66e87a2a1e37</v>
+        <v>49118fe4-84f2-74a2-7237-706189f094e8</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -7854,7 +7867,7 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1016855e-6709-829b-0e80-d0f740d07aec</v>
+        <v>df09b358-39c7-9a83-07b2-d9f2b55624e7</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -7923,7 +7936,7 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6d47e945-7ba8-798a-66a9-a965b5c53a1e</v>
+        <v>5ab3657d-70a1-00ad-00cb-ab7dffc618b4</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -7992,7 +8005,7 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2e883719-7efb-4e99-7d6a-6f3850596ac7</v>
+        <v>81884f46-55e6-90fa-17ee-2d3eacc05e01</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
@@ -8061,7 +8074,7 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a07869ba-6e1b-8b5f-a287-600e0181230f</v>
+        <v>c9e256c4-15ba-1187-6b77-788283f27e55</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -8130,7 +8143,7 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0b868c62-67bd-4bf6-0808-29c70fd79f30</v>
+        <v>99497af2-4592-29e0-1ef8-04dd423ea444</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
@@ -8199,7 +8212,7 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>84d65114-6c8f-15c4-5966-e35202e2381d</v>
+        <v>d9291422-2085-1228-460c-9583c64f5266</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -8268,7 +8281,7 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8fda0bc5-3f36-3fa3-53e0-8fe340b48423</v>
+        <v>22e923bc-7e6a-5ad7-1c0a-84c1b7a44b1d</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -8337,7 +8350,7 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3135b2de-9c60-2d88-9bb7-e5e54a224982</v>
+        <v>d38ccf3e-1614-a3a8-80ec-db28bcbe5d48</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -8406,7 +8419,7 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3cdd48d6-0687-205a-8458-738100e37dd9</v>
+        <v>25139f58-48a3-68e0-4279-f6e34774356a</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -8475,7 +8488,7 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5375a742-4422-9156-8640-60f4c60f2dc4</v>
+        <v>b1cdad1d-62da-833f-4033-e943211d51dd</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -8544,7 +8557,7 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>724bcad2-5454-72e7-13fb-8524a59b48fa</v>
+        <v>22d9b67c-414a-9698-3ad5-3d1d74806435</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
@@ -8612,7 +8625,7 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>69c989ea-448f-248c-97ee-45494c4a93d2</v>
+        <v>b4d7a8e1-9202-9fc1-69f6-2bffd12821e5</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -8680,7 +8693,7 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>02b3a16e-771f-2195-59fe-2fae2c1f39b7</v>
+        <v>7bad80a8-618d-936a-7a43-35a21f6d5a99</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
@@ -8748,7 +8761,7 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5a8f01ff-1448-5e5a-8c51-f733e99a5e3d</v>
+        <v>164f0621-9451-66d8-6096-9adbbf193203</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -8816,7 +8829,7 @@
       </c>
       <c r="W101" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>aecca6b7-4772-1c84-3386-f7789a98843d</v>
+        <v>ac303e16-a1bf-6763-3acf-6c4fbe2643cb</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
@@ -16969,7 +16982,7 @@
   <dimension ref="A1:AG230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21253,7 +21266,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>351</v>
       </c>
       <c r="C70">
         <v>781</v>
@@ -21317,8 +21330,8 @@
       <c r="D71" t="s">
         <v>207</v>
       </c>
-      <c r="E71" s="3">
-        <v>135</v>
+      <c r="E71" s="23" t="s">
+        <v>352</v>
       </c>
       <c r="F71" t="s">
         <v>349</v>
